--- a/stata_data.xlsx
+++ b/stata_data.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Growth Rate (t=1)</t>
+          <t>one_m_diff</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Growth Rate (t=3)</t>
+          <t>three_m_diff</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Growth Rate (t=6)</t>
+          <t>six_m_diff</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Growth Rate (t=12)</t>
+          <t>one_y_diff</t>
         </is>
       </c>
     </row>

--- a/stata_data.xlsx
+++ b/stata_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,73 +434,95 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>NASDAQ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NASDAQ</t>
+          <t>NYSE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NYSE</t>
+          <t>one_m_diff_volume</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OTCMKTS</t>
+          <t>three_m_diff_volume</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>six_m_diff_volume</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>TPE</t>
+          <t>one_y_diff_volume</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>one_m_diff_indexlevel</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>one_m_diff</t>
+          <t>three_m_diff_indexlevel</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>three_m_diff</t>
+          <t>six_m_diff_indexlevel</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>six_m_diff</t>
+          <t>one_y_diff_indexlevel</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>one_y_diff</t>
+          <t>one_m_diff_shareprice</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>three_m_diff_shareprice</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>six_m_diff_shareprice</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>one_y_diff_shareprice</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -509,818 +531,1038 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>-895.4275220864815</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59.84462317179607</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1266.774607992293</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-79.57196306070962</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-745.1122621932888</v>
       </c>
       <c r="J2" t="n">
+        <v>471.3977204556545</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1088.684904582768</v>
+      </c>
+      <c r="L2" t="n">
+        <v>71.78293340781084</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-184.660191329258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>183.4596601375011</v>
+      </c>
+      <c r="O2" t="n">
+        <v>188.3462522011821</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-59.87342741375335</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-30.85014657639604</v>
+      </c>
+      <c r="F3" t="n">
+        <v>945.4553142433483</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2682.952850608167</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1156.7077529802</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1411.687961191337</v>
+      </c>
+      <c r="J3" t="n">
+        <v>206.2884614426379</v>
+      </c>
+      <c r="K3" t="n">
+        <v>593.6393758283382</v>
+      </c>
+      <c r="L3" t="n">
+        <v>63.87091484288463</v>
+      </c>
+      <c r="M3" t="n">
         <v>-674.0489638401491</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N3" t="n">
         <v>180.8336659669949</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O3" t="n">
         <v>120.9362209601404</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P3" t="n">
         <v>33.31840030747026</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-184.660191329258</v>
-      </c>
-      <c r="K3" t="n">
-        <v>183.4596601375011</v>
-      </c>
-      <c r="L3" t="n">
-        <v>188.3462522011821</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-59.87342741375335</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-554.3003535329253</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1575.673773759905</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-889.4695306817301</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-1987.576523908816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-271.522884131161</v>
       </c>
       <c r="J4" t="n">
+        <v>2296.892408201272</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.99296084955368</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-68.89385465249353</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-214.5661514122977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-195.1067397205834</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-159.9937901038151</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-72.87066072422114</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>668.9701760524462</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36.19991084972198</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-379.7261122136584</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-33.90805039250933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55.9066460790106</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.322970197433715</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-11.16525516250188</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.083141633654242</v>
+      </c>
+      <c r="M5" t="n">
         <v>-104.1974267032271</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N5" t="n">
         <v>-146.8058778035576</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O5" t="n">
         <v>-137.5262020961677</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P5" t="n">
         <v>-28.64922089942061</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-217.6923076923077</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-180.4646965937289</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-138.2478632478633</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-76.22377622377621</v>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>93.39710982732056</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-184.9472286517508</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-263.260859169923</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-121.368822415679</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-232.3328447709642</v>
       </c>
       <c r="J6" t="n">
+        <v>77.24774918664677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>918.6090756737849</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150.6942579015963</v>
+      </c>
+      <c r="M6" t="n">
         <v>117.8421294333755</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>632.3397096227205</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>-433.0982996561633</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>171.9278969638005</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-787.1718887245981</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-432.8188798347798</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-158.694957276832</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-77.40592610634327</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-232.3328447709642</v>
       </c>
       <c r="J7" t="n">
+        <v>77.24774918664677</v>
+      </c>
+      <c r="K7" t="n">
+        <v>918.6090756737849</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150.6942579015963</v>
+      </c>
+      <c r="M7" t="n">
         <v>-59.0278648082117</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>-78.4001834634746</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>-63.09738309738311</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>87.03980931829014</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>-290.0771023593097</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-355.2123281424549</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-151.4605494996418</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-95.37085244481702</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>53.40272433538827</v>
       </c>
       <c r="J8" t="n">
+        <v>-58.50525369809689</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-979.0312580037472</v>
+      </c>
+      <c r="L8" t="n">
+        <v>142.426501708798</v>
+      </c>
+      <c r="M8" t="n">
         <v>850.3658982802885</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>55.26947508592637</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>1125.549457250896</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>2.225678771674906</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>-93.44867870679781</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-180.0911124813598</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-153.3227377181215</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-133.1158748358883</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>53.40272433538827</v>
       </c>
       <c r="J9" t="n">
+        <v>-58.50525369809689</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-979.0312580037472</v>
+      </c>
+      <c r="L9" t="n">
+        <v>142.426501708798</v>
+      </c>
+      <c r="M9" t="n">
         <v>-654.2075062532394</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>-46.57375853448442</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>13.62261289087719</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>-29.09349052089755</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>-4054.212025986889</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-1932.667737185634</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-188.9651194659704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>8200.386749493917</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-103.2531870338812</v>
       </c>
       <c r="J10" t="n">
+        <v>-45.08060767820557</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-41.40843272432638</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-8.512522271137867</v>
+      </c>
+      <c r="M10" t="n">
         <v>-67.48645846813255</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>26.51077351705121</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>-5.577067955901984</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>21.07993405058259</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-502.1372034837289</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-115.0414889484653</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-134.5184593410553</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>142.8784578992133</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-85.84766688286524</v>
       </c>
       <c r="J11" t="n">
+        <v>7.255547523013886</v>
+      </c>
+      <c r="K11" t="n">
+        <v>123.5870234001637</v>
+      </c>
+      <c r="L11" t="n">
+        <v>162.3463717881672</v>
+      </c>
+      <c r="M11" t="n">
         <v>-36.15467900757906</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>-39.86207281175231</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>179.2554278675029</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>314.9351596813816</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>-451.370591721469</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-1269.090688868877</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-237.3146527497924</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-12.18086504544838</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-125.3097416049048</v>
       </c>
       <c r="J12" t="n">
+        <v>-29.32521611779256</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-29.49999776610775</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-23.617129497684</v>
+      </c>
+      <c r="M12" t="n">
         <v>-1055.708216366529</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>2609.007883316507</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>-248.2292719576651</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>-59.4801396008213</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-125.2423302476615</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-119.6600862287758</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>-626.799076840012</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-399.2900171083109</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-125.3097416049048</v>
       </c>
       <c r="J13" t="n">
+        <v>-29.32521611779256</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-29.49999776610775</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-23.617129497684</v>
+      </c>
+      <c r="M13" t="n">
         <v>-227.2996634936866</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>-120.0574059019932</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>542.5886160162972</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>-3829.326471923974</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>493.439265004895</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-244.8391257069222</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-192.1514626806511</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-52.54576207809204</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>683.761233470367</v>
       </c>
       <c r="J14" t="n">
+        <v>594.6523970164885</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1605.947186927833</v>
+      </c>
+      <c r="L14" t="n">
+        <v>41.55432256781164</v>
+      </c>
+      <c r="M14" t="n">
         <v>-30.53311008132972</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>-96.22382423618261</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>-77.55568689214346</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>-87.56593881416416</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-140.4061467595554</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-632.4616375754039</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-101.8949938533383</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-121.3025496407241</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>683.761233470367</v>
       </c>
       <c r="J15" t="n">
+        <v>594.6523970164885</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1605.947186927833</v>
+      </c>
+      <c r="L15" t="n">
+        <v>41.55432256781164</v>
+      </c>
+      <c r="M15" t="n">
         <v>21.27002186231194</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>74.99622783855156</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>-68.28885132250726</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>-99.27986459925746</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>-134.9148023232916</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-109.903455675682</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-153.2741652122322</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-103.2103283203447</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-199.4990943727739</v>
       </c>
       <c r="J16" t="n">
+        <v>-130.4242976430818</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-119.4068071882886</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-77.57660333097004</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-49.83578187435941</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-482.9383806377709</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-462.5896581945665</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1014.797674269468</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>44.512439451148</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-115.1163052828615</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-940.1772139418121</v>
+      </c>
+      <c r="H17" t="n">
+        <v>228.840892287696</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-199.4990943727739</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-130.4242976430818</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-119.4068071882886</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-77.57660333097004</v>
+      </c>
+      <c r="M17" t="n">
         <v>-158.926655764955</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N17" t="n">
         <v>-177.4180276662366</v>
       </c>
-      <c r="L16" t="n">
+      <c r="O17" t="n">
         <v>-149.5917819996875</v>
       </c>
-      <c r="M16" t="n">
+      <c r="P17" t="n">
         <v>-90.42598894412265</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-49.83578187435941</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-482.9383806377709</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-462.5896581945665</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1014.797674269468</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-109.7855716570927</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.87725026062757</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-204.8772015563999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-153.2260627034742</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-153.6712061175835</v>
       </c>
       <c r="J18" t="n">
-        <v>-483.5594798212352</v>
+        <v>66.78749312132011</v>
       </c>
       <c r="K18" t="n">
-        <v>-86.25408269421968</v>
+        <v>-101.4504822660815</v>
       </c>
       <c r="L18" t="n">
-        <v>-70.02460992652955</v>
+        <v>-47.56512937401116</v>
       </c>
       <c r="M18" t="n">
-        <v>-71.75543404686243</v>
+        <v>-214.4008647333714</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-68.72160782997661</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-82.07218686102158</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-97.34858899085043</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>-158.3077323655681</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-47.03497306505582</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>54.81234915185284</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-140.3714529749132</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-119.4631270436367</v>
       </c>
       <c r="J19" t="n">
-        <v>-214.400864733371</v>
+        <v>139.0123010470719</v>
       </c>
       <c r="K19" t="n">
-        <v>-68.72160782997661</v>
+        <v>-1.83146799830364</v>
       </c>
       <c r="L19" t="n">
-        <v>-82.07218686102158</v>
+        <v>-83.9879802495451</v>
       </c>
       <c r="M19" t="n">
-        <v>-97.34858899085043</v>
+        <v>-1227.627448053461</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-64.09110032927805</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-73.78381867397688</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-72.46258380485361</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>1615.076484269394</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-30.59602032315597</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-142.995058216568</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>217.5174082305699</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>433.3455841376363</v>
       </c>
       <c r="J20" t="n">
+        <v>225.1185625079511</v>
+      </c>
+      <c r="K20" t="n">
+        <v>724.8315788742644</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-721.5483877480768</v>
+      </c>
+      <c r="M20" t="n">
         <v>19.51493563177316</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>6.71185908128641</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>-21.46019697219992</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>23.0823302938918</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>-443.867239224107</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-307.2933400392172</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-1440.302397604064</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>6847.767005366793</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>433.3455841376363</v>
       </c>
       <c r="J21" t="n">
+        <v>225.1185625079511</v>
+      </c>
+      <c r="K21" t="n">
+        <v>724.8315788742644</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-721.5483877480768</v>
+      </c>
+      <c r="M21" t="n">
         <v>369.0943400572821</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>395.9195271552808</v>
       </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
         <v>-3295.53043956759</v>
       </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
         <v>-279.8191228238817</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1329,241 +1571,307 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>-486.8382510453548</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-193.7856994820027</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-405.7526619469388</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-87.09577874937602</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-192.4244027059652</v>
       </c>
       <c r="J22" t="n">
+        <v>-17.88948299136577</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-129.7891535479697</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-61.46904384526041</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-215.6016198670073</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-27.75650559895438</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-85.04543350551847</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-59.15075293101778</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-416.4320849444265</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-274.7591132545285</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-419.073826995775</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-136.1754881758872</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-421.056568344972</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-7.759189533853728</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-145.9362328292724</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-56.28346641799074</v>
+      </c>
+      <c r="M23" t="n">
         <v>-209.6406495547401</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N23" t="n">
         <v>-90.4460394770571</v>
       </c>
-      <c r="L22" t="n">
+      <c r="O23" t="n">
         <v>-128.5802913145118</v>
       </c>
-      <c r="M22" t="n">
+      <c r="P23" t="n">
         <v>-36.59079025631804</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-215.6016198670073</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-27.75650559895438</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-85.04543350551847</v>
-      </c>
-      <c r="M23" t="n">
-        <v>-59.15075293101778</v>
-      </c>
-    </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>-100.1980552466017</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-521.037844455085</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>-3.871921851682044</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-145.0842779266314</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-182.4530294366172</v>
       </c>
       <c r="J24" t="n">
+        <v>-71.93250626472077</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-80.62580926934125</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-164.8803590296765</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-56.70276325616136</v>
+      </c>
+      <c r="N24" t="n">
+        <v>105.3020901768987</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-47.78413252505105</v>
+      </c>
+      <c r="P24" t="n">
+        <v>80.48453985274739</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-68.47632072550509</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-174.8408836238236</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-278.5398595952868</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-239.2707357565653</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-182.4530294366172</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-71.93250626472077</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-80.62580926934125</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-164.8803590296765</v>
+      </c>
+      <c r="M25" t="n">
         <v>-42.25326714188716</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N25" t="n">
         <v>-182.6848199721686</v>
       </c>
-      <c r="L24" t="n">
+      <c r="O25" t="n">
         <v>-232.5101832993888</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P25" t="n">
         <v>-5254.652159931458</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-56.70276325616136</v>
-      </c>
-      <c r="K25" t="n">
-        <v>105.3020901768987</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-47.78413252505105</v>
-      </c>
-      <c r="M25" t="n">
-        <v>80.48453985274739</v>
-      </c>
-    </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>-282.3853245230486</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-695.6204711110269</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-254.7675269958626</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-202.5309744666205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-163.3666048046262</v>
       </c>
       <c r="J26" t="n">
+        <v>-111.0018214016407</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-104.5434034107055</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-44.72306974954228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-144.8658253500367</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-38.80108311253667</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-61.18872192889919</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-101.7121977174671</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-46.5196706704364</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-393.0492256071388</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-349.8591093275519</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4462.758985019464</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-163.3666048046262</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-111.0018214016407</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-104.5434034107055</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-44.72306974954228</v>
+      </c>
+      <c r="M27" t="n">
         <v>-129.8443892950565</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N27" t="n">
         <v>-166.1435812908542</v>
       </c>
-      <c r="L26" t="n">
+      <c r="O27" t="n">
         <v>-334.2524446287277</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P27" t="n">
         <v>-245.7840106266674</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-144.8658253500367</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-38.80108311253667</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-61.18872192889919</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-101.7121977174671</v>
-      </c>
-    </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1572,39 +1880,42 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>-272.2439280790474</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-225.6239579822967</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-384.6673460554013</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-4093.574297188836</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-86.8904188181298</v>
-      </c>
-      <c r="L28" t="n">
-        <v>23.76544962428802</v>
-      </c>
+        <v>-973.9274166706979</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-33.74587845545605</v>
+        <v>-149.2725470425303</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-105.6026619055633</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-196.2681685605838</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-362.8900927840721</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1616,36 +1927,47 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>-544.4292059985111</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-239.4711059671549</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-129.1484737371428</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-208.1186165168752</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-89.32248296581864</v>
       </c>
       <c r="J29" t="n">
-        <v>70.95890410958891</v>
+        <v>-221.9268074374132</v>
       </c>
       <c r="K29" t="n">
-        <v>-90.00397061743104</v>
+        <v>-93.20295982746066</v>
       </c>
       <c r="L29" t="n">
-        <v>-27.25570776255703</v>
+        <v>173.899494927138</v>
       </c>
       <c r="M29" t="n">
-        <v>-70.78297072253558</v>
+        <v>-85.65000859057334</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17.42556390977427</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-85.20724585436194</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-3.235403916768736</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1657,61 +1979,99 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-130.2941810712884</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-34.52681434198122</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-112.7678879859985</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-113.0078005699619</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+        <v>40.23253412138728</v>
+      </c>
+      <c r="J30" t="n">
+        <v>74.73155761342056</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-305.321130670826</v>
+      </c>
+      <c r="L30" t="n">
+        <v>295.4742527003894</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-244.6544358937895</v>
+      </c>
+      <c r="N30" t="n">
+        <v>41.0855677590525</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-32.86719641727677</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-58.70334388700091</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-320.8099556736919</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-37.34303005122552</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-257.5006032656782</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>11044.84246437889</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+        <v>262.1002923073249</v>
+      </c>
+      <c r="J31" t="n">
+        <v>114.7896338247621</v>
+      </c>
+      <c r="K31" t="n">
+        <v>291.0159048169777</v>
+      </c>
+      <c r="L31" t="n">
+        <v>69.0720249667292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>56.28897636109473</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-431.0147979356144</v>
+      </c>
+      <c r="O31" t="n">
+        <v>71.22340632741476</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-76.3796385920603</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -1723,121 +2083,154 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>33.76587258085935</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-24.99850398282996</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-679.590100218684</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-30.28061502521929</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>936.5871153739059</v>
       </c>
       <c r="J32" t="n">
-        <v>-85.65000859057334</v>
+        <v>-170.7972299466368</v>
       </c>
       <c r="K32" t="n">
-        <v>17.42556390977427</v>
+        <v>-227.6953386949396</v>
       </c>
       <c r="L32" t="n">
-        <v>-85.20724585436194</v>
+        <v>-187.8770466971614</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.235403916768736</v>
+        <v>-93.05641421947452</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-135.4713371823041</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-89.01011874465934</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-273.4853168469862</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-84.15591918891282</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>155.0669506106313</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-1102.347909238011</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-77.95958788554024</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>936.5871153739059</v>
       </c>
       <c r="J33" t="n">
-        <v>-149.2725470425306</v>
+        <v>-170.7972299466368</v>
       </c>
       <c r="K33" t="n">
-        <v>-105.6026619055633</v>
+        <v>-227.6953386949396</v>
       </c>
       <c r="L33" t="n">
-        <v>-196.2681685605838</v>
+        <v>-187.8770466971614</v>
       </c>
       <c r="M33" t="n">
-        <v>-362.8900927840725</v>
+        <v>151.9819248454067</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-117.518679257574</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-11.84115853152295</v>
+      </c>
+      <c r="P33" t="n">
+        <v>442.4918428145869</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-110.2514280520824</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-270.1850743963933</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.74094599372344</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-126.486257250621</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.7194452799101</v>
       </c>
       <c r="J34" t="n">
-        <v>56.28897636109473</v>
+        <v>-60.53574800532891</v>
       </c>
       <c r="K34" t="n">
-        <v>-431.0147979356144</v>
+        <v>63.60937370232732</v>
       </c>
       <c r="L34" t="n">
-        <v>71.22340632741476</v>
+        <v>15.77236995475731</v>
       </c>
       <c r="M34" t="n">
-        <v>-76.3796385920603</v>
+        <v>-48.07368648182156</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1249.596774193761</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-288.4814267623471</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-135.3100369397309</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -1846,69 +2239,99 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-104.2790960672531</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>63.2320311180663</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-187.8009745028194</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-514.2181900158743</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>71.7194452799101</v>
       </c>
       <c r="J35" t="n">
-        <v>-244.6544358937895</v>
+        <v>-60.53574800532891</v>
       </c>
       <c r="K35" t="n">
-        <v>41.0855677590525</v>
+        <v>63.60937370232732</v>
       </c>
       <c r="L35" t="n">
-        <v>-32.86719641727677</v>
+        <v>15.77236995475731</v>
       </c>
       <c r="M35" t="n">
-        <v>-58.70334388700091</v>
+        <v>-87.63389336679003</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-133.9403138546725</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-110.7051942027674</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-32.62889262406453</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>204.5518426718266</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-140.3437731745226</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-1115.312998998648</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-3523.81666903449</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+        <v>-68.34992509962639</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-216.6361673642422</v>
+      </c>
+      <c r="K36" t="n">
+        <v>51.75553804314229</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-370.2257439789421</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-5.43014259034193</v>
+      </c>
+      <c r="N36" t="n">
+        <v>201.8877297565809</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-137.0628174362237</v>
+      </c>
+      <c r="P36" t="n">
+        <v>14.5735449519415</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1917,195 +2340,244 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.30705827586466</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-296.2539349450762</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>49.17221610106055</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>-549.7419005586889</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>-9.760121457489827</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-116.8748921484037</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-171.8780487804877</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>-1335.13194802483</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-400.9658413102697</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-58.26983655698515</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-102.9169609207978</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-321.6146320673876</v>
       </c>
       <c r="J38" t="n">
-        <v>151.9819248454067</v>
+        <v>-40.67077881178277</v>
       </c>
       <c r="K38" t="n">
-        <v>-117.518679257574</v>
+        <v>-13.33929617805992</v>
       </c>
       <c r="L38" t="n">
-        <v>-11.84115853152295</v>
+        <v>-33.72674573887157</v>
       </c>
       <c r="M38" t="n">
-        <v>442.4918428145869</v>
+        <v>15.8153755408574</v>
+      </c>
+      <c r="N38" t="n">
+        <v>130.8854655104925</v>
+      </c>
+      <c r="O38" t="n">
+        <v>18.55955570976896</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-59.00300835677484</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>-570.0628174386352</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-440.6206999761469</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-158.7105428617824</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-218.5375760726482</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-321.6146320673876</v>
       </c>
       <c r="J39" t="n">
-        <v>-93.05641421947452</v>
+        <v>-40.67077881178277</v>
       </c>
       <c r="K39" t="n">
-        <v>-135.4713371823041</v>
+        <v>-13.33929617805992</v>
       </c>
       <c r="L39" t="n">
-        <v>-89.01011874465934</v>
+        <v>-33.72674573887157</v>
       </c>
       <c r="M39" t="n">
-        <v>-273.4853168469862</v>
+        <v>970.5448224874046</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-441.4135737009537</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-16.080036808294</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-121.3465617097642</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>-272.6760702784945</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-144.6677224025889</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-303.8059774236746</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-531.009913858323</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-4943.522224364628</v>
       </c>
       <c r="J40" t="n">
-        <v>-87.63389336679003</v>
+        <v>-3.26623080040061</v>
       </c>
       <c r="K40" t="n">
-        <v>-133.9403138546725</v>
+        <v>-142.9169072802986</v>
       </c>
       <c r="L40" t="n">
-        <v>-110.7051942027674</v>
+        <v>-311.3859153011273</v>
       </c>
       <c r="M40" t="n">
-        <v>-32.62889262406453</v>
+        <v>-1111.359022166986</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.377812942132226</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-32.93379502204858</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-21.83683350918519</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>-318.3953281750477</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-142.6861805692858</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-462.2225121766699</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-48.07368648182156</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-1249.596774193761</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-288.4814267623471</v>
-      </c>
+        <v>-104.7500095039243</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>-135.3100369397309</v>
+        <v>34.00514579759778</v>
+      </c>
+      <c r="N41" t="n">
+        <v>79.65408805031437</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-259.433962264151</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-265.7906558849956</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2117,599 +2589,772 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>-112.3167582528333</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-173.2768609186564</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-118.9612128688171</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-133.6610727055967</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.73753554080078</v>
       </c>
       <c r="J42" t="n">
-        <v>-5.43014259034193</v>
+        <v>-573.4205159105118</v>
       </c>
       <c r="K42" t="n">
-        <v>201.8877297565809</v>
+        <v>-156.191542475551</v>
       </c>
       <c r="L42" t="n">
-        <v>-137.0628174362237</v>
+        <v>-101.095797117868</v>
       </c>
       <c r="M42" t="n">
-        <v>14.5735449519415</v>
+        <v>-96.15786591366961</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-175.3673866280513</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-50.9669756793034</v>
+      </c>
+      <c r="P42" t="n">
+        <v>20.90876030533232</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-108.2562487916358</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>-154.0526440109462</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>192.0180371368383</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-140.7183953035652</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+        <v>-16.6525898244086</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-2538.819579009172</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-183.1701372610975</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-148.1589938185947</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-152.3031660895734</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-311.3363206372916</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-114.7150683215964</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-54.41953727906398</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-132.0687436157178</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-7.091270652761507</v>
+      </c>
+      <c r="G44" t="n">
+        <v>46.58772235086278</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-122.8758691847795</v>
+      </c>
+      <c r="I44" t="n">
+        <v>135.270614743072</v>
+      </c>
+      <c r="J44" t="n">
+        <v>236.8196183948904</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-3.636686550388203</v>
+      </c>
+      <c r="L44" t="n">
+        <v>79.29331962103204</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-54.64278621337135</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-42.49036777583184</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-66.91397030001127</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-54.39903004176207</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-218.2534527288703</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-284.7251296662109</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-303.1660089359492</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-224.2771430361189</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1218.251236683237</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-364.6468756646565</v>
+      </c>
+      <c r="K45" t="n">
+        <v>341.6070121406456</v>
+      </c>
+      <c r="L45" t="n">
+        <v>140.9214983399187</v>
+      </c>
+      <c r="M45" t="n">
+        <v>157.6101598953551</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.242227324460043</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-21.50353737044045</v>
+      </c>
+      <c r="P45" t="n">
+        <v>20.15416853764401</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-396.6690655031249</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-218.888655929074</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-302.4628834319656</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-415.1774705196432</v>
+      </c>
+      <c r="I46" t="n">
+        <v>162.7674199514945</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-56.57245067541277</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-75.40289121073475</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-252.1141863915769</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.283779004645851</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-162.5123385402091</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-112.7547255403829</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-168.3300455927175</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-111.3528721188996</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-131.7132173749937</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-121.8381245050756</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-103.9744568130104</v>
+      </c>
+      <c r="I47" t="n">
+        <v>83.52709508766844</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-35.55473553492997</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-28.7995248375262</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-57.22641195520115</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-70.12275983103797</v>
+      </c>
+      <c r="N47" t="n">
+        <v>90.02676282088068</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-771.1577158506034</v>
+      </c>
+      <c r="P47" t="n">
+        <v>89.69017962783441</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-110.9393705583847</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-117.6043416768111</v>
+      </c>
+      <c r="G48" t="n">
+        <v>124.4156653688838</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-85.80241455022779</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-108.8511152266847</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-206.261403412404</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-183.0277202305481</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-136.0573010478286</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-96.01144618093753</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-362.4000725097413</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-11.47547951756002</v>
+      </c>
+      <c r="P48" t="n">
+        <v>24.27372428170041</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-598.6930202033437</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-240.8012381599142</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-466.0550938060352</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-360.3847166004871</v>
+      </c>
+      <c r="I49" t="n">
+        <v>162.7674199514945</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-56.57245067541277</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-75.40289121073475</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-252.1141863915769</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-1075.308878294504</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-197.6811505740468</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-254.7403659844066</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-331.8813196493541</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>64.59291977680523</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-133.4623258501241</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-140.9286633418392</v>
+      </c>
+      <c r="H50" t="n">
+        <v>718.4242432571286</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-25.94585165231343</v>
+      </c>
+      <c r="J50" t="n">
+        <v>10864.59406887139</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-246.2452786911677</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-81.50745377731461</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1269.82036588056</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-157.4081124224391</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.5793693736761362</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.2097229794785999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-85.59247543813206</v>
+      </c>
+      <c r="F51" t="n">
+        <v>18.00407069694076</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-122.9421287302519</v>
+      </c>
+      <c r="H51" t="n">
+        <v>76.36331438714838</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-25.94585165231343</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10864.59406887139</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-246.2452786911677</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-81.50745377731461</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-824.2698985731471</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1709.679420436519</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-107.3785792766331</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-12.47816816257194</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-409.8596575718865</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-317.6831664597051</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-342.8387209525839</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-260.57633518968</v>
+      </c>
+      <c r="I52" t="n">
+        <v>135.270614743072</v>
+      </c>
+      <c r="J52" t="n">
+        <v>236.8196183948904</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-3.636686550388203</v>
+      </c>
+      <c r="L52" t="n">
+        <v>79.29331962103204</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-134.5309291231472</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-132.4380159576159</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-292.1178771394967</v>
+      </c>
+      <c r="P52" t="n">
+        <v>18.73722932813916</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-174.2135266116766</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-115.7881817447822</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-419.1430481006948</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1424.838094391824</v>
+      </c>
+      <c r="I53" t="n">
+        <v>135.270614743072</v>
+      </c>
+      <c r="J53" t="n">
+        <v>236.8196183948904</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-3.636686550388203</v>
+      </c>
+      <c r="L53" t="n">
+        <v>79.29331962103204</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-19.08372635116834</v>
+      </c>
+      <c r="N53" t="n">
+        <v>64.40913681375687</v>
+      </c>
+      <c r="O53" t="n">
+        <v>33.26878412210053</v>
+      </c>
+      <c r="P53" t="n">
+        <v>639.3977777021123</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-119.5861678004535</v>
+      </c>
+      <c r="F54" t="n">
+        <v>83.82286247832469</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-764.3038667785574</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-842.6303854875284</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-205.4039086544143</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-78.67332500986525</v>
+      </c>
+      <c r="K54" t="n">
+        <v>87.12572138671794</v>
+      </c>
+      <c r="L54" t="n">
+        <v>94.16619976905534</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-592.8833543088045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-534.6611909650935</v>
+      </c>
+      <c r="O54" t="n">
+        <v>810.3353867214214</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-77.75496235455168</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-20.65739378731505</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-102.7217070920578</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-54.08554371057538</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>-inf</t>
         </is>
       </c>
-      <c r="K43" t="n">
-        <v>-9.760121457489827</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-116.8748921484037</v>
-      </c>
-      <c r="M43" t="n">
-        <v>-171.8780487804877</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>15.8153755408574</v>
-      </c>
-      <c r="K44" t="n">
-        <v>130.8854655104925</v>
-      </c>
-      <c r="L44" t="n">
-        <v>18.55955570976896</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-59.00300835677484</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>970.5448224874046</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-441.4135737009537</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-16.080036808294</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-121.3465617097642</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>34.00514579759778</v>
-      </c>
-      <c r="K46" t="n">
-        <v>79.65408805031437</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-259.433962264151</v>
-      </c>
-      <c r="M46" t="n">
-        <v>-265.7906558849956</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-1111.359022166986</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5.377812942132226</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-32.93379502204858</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-21.83683350918519</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-96.15786591366961</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-175.3673866280513</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-50.9669756793034</v>
-      </c>
-      <c r="M48" t="n">
-        <v>20.90876030533232</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>-152.3031660895734</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-311.3363206372916</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-114.7150683215964</v>
-      </c>
-      <c r="M49" t="n">
-        <v>-54.41953727906398</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>157.6101598953551</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.242227324460043</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-21.50353737044045</v>
-      </c>
-      <c r="M50" t="n">
-        <v>20.15416853764401</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-54.64278621337135</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-42.49036777583184</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-66.91397030001127</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-54.39903004176207</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-70.12275983103797</v>
-      </c>
-      <c r="K52" t="n">
-        <v>90.02676282088068</v>
-      </c>
-      <c r="L52" t="n">
-        <v>-771.1577158506034</v>
-      </c>
-      <c r="M52" t="n">
-        <v>89.69017962783441</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-1075.308878294504</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-197.6811505740468</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-254.7403659844066</v>
-      </c>
-      <c r="M53" t="n">
-        <v>-331.8813196493541</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+        <v>-205.4039086544143</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-78.67332500986525</v>
+      </c>
+      <c r="K55" t="n">
+        <v>87.12572138671794</v>
+      </c>
+      <c r="L55" t="n">
+        <v>94.16619976905534</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1736.05934581978</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-6.751515753496891</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-137.5969000867621</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-29.06081336351076</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>-191.3645741231948</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>133.5164835164835</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-47.16057622782135</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>-134.5309291231472</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-132.4380159576159</v>
-      </c>
-      <c r="L56" t="n">
-        <v>-292.1178771394967</v>
-      </c>
+        <v>-532.5274725274725</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>18.73722932813916</v>
+        <v>-36.42930856553139</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-371.9298245614036</v>
+      </c>
+      <c r="O56" t="n">
+        <v>417.7527151211358</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1521.637426900583</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2718,77 +3363,99 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>-80.57387145366154</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>-123.2408936482166</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>-124.0054325989298</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>-118.0688804213185</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>63.73753554080078</v>
       </c>
       <c r="J57" t="n">
-        <v>-19.08372635116834</v>
+        <v>-573.4205159105118</v>
       </c>
       <c r="K57" t="n">
-        <v>64.40913681375687</v>
+        <v>-156.191542475551</v>
       </c>
       <c r="L57" t="n">
-        <v>33.26878412210053</v>
+        <v>-101.095797117868</v>
       </c>
       <c r="M57" t="n">
-        <v>639.3977777021123</v>
+        <v>-15.79806659505907</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-31.58890469416784</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-87.1627906976744</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-12.00457665903888</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>3306.984426855741</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>-37.86290104670825</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>-278.1800261796741</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-78.07912891011291</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>136.7502991361033</v>
       </c>
       <c r="J58" t="n">
-        <v>1736.05934581978</v>
+        <v>-6.735113638377553</v>
       </c>
       <c r="K58" t="n">
-        <v>-6.751515753496891</v>
+        <v>306.4653052124735</v>
       </c>
       <c r="L58" t="n">
-        <v>-137.5969000867621</v>
+        <v>-117.278129055429</v>
       </c>
       <c r="M58" t="n">
-        <v>-29.06081336351076</v>
+        <v>24.59248508090363</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-141.6798848662575</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-641.2131716849839</v>
+      </c>
+      <c r="P58" t="n">
+        <v>119.3071055328281</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2800,77 +3467,91 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>-137.8891035379585</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>-27.96032966080729</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-34.27122698837344</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>-32.20809912735691</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>938.6239310394536</v>
       </c>
       <c r="J59" t="n">
-        <v>-592.8833543088045</v>
+        <v>-35.96015139286956</v>
       </c>
       <c r="K59" t="n">
-        <v>-534.6611909650935</v>
+        <v>-0.02422746739298062</v>
       </c>
       <c r="L59" t="n">
-        <v>810.3353867214214</v>
+        <v>-70.1388797184224</v>
       </c>
       <c r="M59" t="n">
-        <v>-77.75496235455168</v>
+        <v>-2094.936708860715</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-60.49158166400387</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-82.92364230298085</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-14.28659211011433</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-224.4134593130388</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>197.5464254897426</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-117.0750122563826</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-36.42930856553139</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-371.9298245614036</v>
-      </c>
-      <c r="L60" t="n">
-        <v>417.7527151211358</v>
-      </c>
+        <v>77.92399620670619</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>1521.637426900583</v>
+        <v>-244.101754333418</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-321.201139521718</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-339.9844088380006</v>
+      </c>
+      <c r="P60" t="n">
+        <v>268.8682929208687</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -2882,118 +3563,151 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-171.3654232387382</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>-119.2585395455878</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>-138.6899091361042</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>-169.5344103285791</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>-272.6140525234057</v>
       </c>
       <c r="J61" t="n">
-        <v>-15.79806659505907</v>
+        <v>-194.4150728792034</v>
       </c>
       <c r="K61" t="n">
-        <v>-31.58890469416784</v>
+        <v>-315.0155917824162</v>
       </c>
       <c r="L61" t="n">
-        <v>-87.1627906976744</v>
+        <v>199.0396637506803</v>
       </c>
       <c r="M61" t="n">
-        <v>-12.00457665903888</v>
+        <v>-294.6506892895015</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-225.5770186335405</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-334.8113712374582</v>
+      </c>
+      <c r="P61" t="n">
+        <v>580.1971014492758</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>-187.9530187994411</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-319.2011650489785</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>-139.5905117784811</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>-119.9117415772603</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>-128.7503378859602</v>
       </c>
       <c r="J62" t="n">
-        <v>-2094.936708860715</v>
+        <v>-217.5445217485243</v>
       </c>
       <c r="K62" t="n">
-        <v>-60.49158166400387</v>
+        <v>-139.7763533802599</v>
       </c>
       <c r="L62" t="n">
-        <v>-82.92364230298085</v>
+        <v>-79.46423309475796</v>
       </c>
       <c r="M62" t="n">
-        <v>-14.28659211011433</v>
+        <v>-416.6301779260488</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-4498.516620993668</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1242.305108843504</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-512.9649054036003</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>-920.2001736556689</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>-569.2412329162432</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>-122.6218194768503</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>-163.6208451963115</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>35.13880231762013</v>
       </c>
       <c r="J63" t="n">
-        <v>24.59248508090363</v>
+        <v>-112.602405490287</v>
       </c>
       <c r="K63" t="n">
-        <v>-141.6798848662575</v>
+        <v>-63.47801994942321</v>
       </c>
       <c r="L63" t="n">
-        <v>-641.2131716849839</v>
+        <v>-15.97024867729588</v>
       </c>
       <c r="M63" t="n">
-        <v>119.3071055328281</v>
+        <v>-399.917466622835</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-61.07538405637884</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-2068.03876945807</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-6.503343763318346</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -3005,121 +3719,154 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-1568.817011184375</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>-208.8508980563123</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-235.2975555504337</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>756.9607044209785</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>-139.3771735284042</v>
       </c>
       <c r="J64" t="n">
-        <v>-244.101754333418</v>
+        <v>-42.01804047950375</v>
       </c>
       <c r="K64" t="n">
-        <v>-321.201139521718</v>
+        <v>32.45670545009137</v>
       </c>
       <c r="L64" t="n">
-        <v>-339.9844088380008</v>
+        <v>-84.47054359338929</v>
       </c>
       <c r="M64" t="n">
-        <v>268.8682929208687</v>
+        <v>-192.7905720550233</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-160.6932421598299</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-123.371102627782</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-122.7564097669634</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>-541.1000126060433</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>-160.5618085083507</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>-165.1848627383467</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>-175.0320620161188</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>-204.2373208410714</v>
       </c>
       <c r="J65" t="n">
-        <v>-294.6506892895015</v>
+        <v>-130.527564284967</v>
       </c>
       <c r="K65" t="n">
-        <v>-225.5770186335405</v>
+        <v>-97.4961810706728</v>
       </c>
       <c r="L65" t="n">
-        <v>-334.8113712374582</v>
+        <v>-141.1116365481666</v>
       </c>
       <c r="M65" t="n">
-        <v>580.1971014492758</v>
+        <v>-190.2738476822078</v>
+      </c>
+      <c r="N65" t="n">
+        <v>620.3927354851436</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-2266.372409705652</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-166.3025937659196</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2245.457198434109</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>9797.685893714563</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>-97.29589467338265</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>-146.9072308046607</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-446.0417179950152</v>
       </c>
       <c r="J66" t="n">
-        <v>-399.917466622835</v>
+        <v>-42.66850289219847</v>
       </c>
       <c r="K66" t="n">
-        <v>-61.07538405637884</v>
+        <v>-107.6733615290788</v>
       </c>
       <c r="L66" t="n">
-        <v>-2068.03876945807</v>
+        <v>-160.6504899270358</v>
       </c>
       <c r="M66" t="n">
-        <v>-6.503343763318346</v>
+        <v>-261.2082023734659</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-26.49442073672474</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-100.0256316393727</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-247.5400706273422</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -3128,261 +3875,40 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>258.06573969603</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>6148.962395896503</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>-134.1593223945713</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>-121.1473111975412</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>-446.0417179950152</v>
       </c>
       <c r="J67" t="n">
-        <v>-416.6301779260488</v>
+        <v>-42.66850289219847</v>
       </c>
       <c r="K67" t="n">
-        <v>-4498.516620993668</v>
+        <v>-107.6733615290788</v>
       </c>
       <c r="L67" t="n">
-        <v>-1242.305108843504</v>
+        <v>-160.6504899270358</v>
       </c>
       <c r="M67" t="n">
-        <v>-512.9649054036003</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-192.7905720550233</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-160.6932421598299</v>
-      </c>
-      <c r="L68" t="n">
-        <v>-123.371102627782</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-122.7564097669634</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-190.2738476822078</v>
-      </c>
-      <c r="K69" t="n">
-        <v>620.3927354851436</v>
-      </c>
-      <c r="L69" t="n">
-        <v>-2266.372409705652</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-166.3025937659196</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-544.9261037143825</v>
-      </c>
-      <c r="K72" t="n">
+        <v>-544.9261037143842</v>
+      </c>
+      <c r="N67" t="n">
         <v>-38.60387061271162</v>
       </c>
-      <c r="L72" t="n">
-        <v>-74.24539412566699</v>
-      </c>
-      <c r="M72" t="n">
+      <c r="O67" t="n">
+        <v>-74.245394125667</v>
+      </c>
+      <c r="P67" t="n">
         <v>-206.2272862103178</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-261.2082023734659</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-26.49442073672472</v>
-      </c>
-      <c r="L73" t="n">
-        <v>-100.0256316393727</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-247.5400706273422</v>
       </c>
     </row>
   </sheetData>

--- a/stata_data.xlsx
+++ b/stata_data.xlsx
@@ -1427,16 +1427,16 @@
         <v>-140.3714529749132</v>
       </c>
       <c r="I19" t="n">
-        <v>-119.4631270436367</v>
+        <v>-153.3340807922854</v>
       </c>
       <c r="J19" t="n">
-        <v>139.0123010470719</v>
+        <v>13.48516497795049</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.83146799830364</v>
+        <v>67.97918063312804</v>
       </c>
       <c r="L19" t="n">
-        <v>-83.9879802495451</v>
+        <v>-85.191972773709</v>
       </c>
       <c r="M19" t="n">
         <v>-1227.627448053461</v>

--- a/stata_data.xlsx
+++ b/stata_data.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +462,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ISF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>NYSE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>one_m_diff_volume</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>three_m_diff_volume</t>
+          <t>% Change in Volume (t=1)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>six_m_diff_volume</t>
+          <t>% Change in Volume (t=3)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>one_y_diff_volume</t>
+          <t>% Change in Volume (t=6)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>one_m_diff_indexlevel</t>
+          <t>% Change in Volume (t=12)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>three_m_diff_indexlevel</t>
+          <t>% Change in Share Price (t=1)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>six_m_diff_indexlevel</t>
+          <t>% Change in Share Price (t=3)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>one_y_diff_indexlevel</t>
+          <t>% Change in Share Price (t=6)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>one_m_diff_shareprice</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>three_m_diff_shareprice</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>six_m_diff_shareprice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>one_y_diff_shareprice</t>
+          <t>% Change in Share Price (t=12)</t>
         </is>
       </c>
     </row>
@@ -521,60 +527,51 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-895.4275220864815</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>59.84462317179607</v>
+        <v>-27.60268556904479</v>
       </c>
       <c r="G2" t="n">
-        <v>-1266.774607992293</v>
+        <v>-28.6012592597964</v>
       </c>
       <c r="H2" t="n">
-        <v>-79.57196306070962</v>
+        <v>-12.90630132520312</v>
       </c>
       <c r="I2" t="n">
-        <v>-745.1122621932888</v>
+        <v>63.01780291204268</v>
       </c>
       <c r="J2" t="n">
-        <v>471.3977204556545</v>
+        <v>8.87682959136367</v>
       </c>
       <c r="K2" t="n">
-        <v>-1088.684904582768</v>
+        <v>-14.28147771564141</v>
       </c>
       <c r="L2" t="n">
-        <v>71.78293340781084</v>
+        <v>-17.27269010243845</v>
       </c>
       <c r="M2" t="n">
-        <v>-184.660191329258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>183.4596601375011</v>
-      </c>
-      <c r="O2" t="n">
-        <v>188.3462522011821</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-59.87342741375335</v>
+        <v>-36.49265641486246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -583,50 +580,43 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-30.85014657639604</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>945.4553142433483</v>
+        <v>219.5593578511758</v>
       </c>
       <c r="G3" t="n">
-        <v>2682.952850608167</v>
+        <v>-45.71757508620999</v>
       </c>
       <c r="H3" t="n">
-        <v>1156.7077529802</v>
+        <v>150.5874466934428</v>
       </c>
       <c r="I3" t="n">
-        <v>1411.687961191337</v>
+        <v>12.87330005720129</v>
       </c>
       <c r="J3" t="n">
-        <v>206.2884614426379</v>
+        <v>-7.515140916020671</v>
       </c>
       <c r="K3" t="n">
-        <v>593.6393758283382</v>
+        <v>-40.4822281953701</v>
       </c>
       <c r="L3" t="n">
-        <v>63.87091484288463</v>
+        <v>-49.80515456470579</v>
       </c>
       <c r="M3" t="n">
-        <v>-674.0489638401491</v>
-      </c>
-      <c r="N3" t="n">
-        <v>180.8336659669949</v>
-      </c>
-      <c r="O3" t="n">
-        <v>120.9362209601404</v>
-      </c>
-      <c r="P3" t="n">
-        <v>33.31840030747026</v>
+        <v>-14.64325226495938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -635,92 +625,72 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-554.3003535329253</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1575.673773759905</v>
+        <v>-28.89835661369272</v>
       </c>
       <c r="G4" t="n">
-        <v>-889.4695306817301</v>
+        <v>23.70998680963853</v>
       </c>
       <c r="H4" t="n">
-        <v>-1987.576523908816</v>
+        <v>25.0326626051021</v>
       </c>
       <c r="I4" t="n">
-        <v>-271.522884131161</v>
+        <v>43.31573873222464</v>
       </c>
       <c r="J4" t="n">
-        <v>2296.892408201272</v>
+        <v>4.152021089630916</v>
       </c>
       <c r="K4" t="n">
-        <v>69.99296084955368</v>
+        <v>-31.72523041474655</v>
       </c>
       <c r="L4" t="n">
-        <v>-68.89385465249353</v>
+        <v>-43.08523409363746</v>
       </c>
       <c r="M4" t="n">
-        <v>-214.5661514122977</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-195.1067397205834</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-159.9937901038151</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-72.87066072422114</v>
+        <v>-52.44734202607824</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>668.9701760524462</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>36.19991084972198</v>
+        <v>-19.98317124019887</v>
       </c>
       <c r="G5" t="n">
-        <v>-379.7261122136584</v>
+        <v>247.8773171077629</v>
       </c>
       <c r="H5" t="n">
-        <v>-33.90805039250933</v>
+        <v>696.6471975518135</v>
       </c>
       <c r="I5" t="n">
-        <v>55.9066460790106</v>
+        <v>544.3522469085142</v>
       </c>
       <c r="J5" t="n">
-        <v>8.322970197433715</v>
+        <v>-23.83463404345074</v>
       </c>
       <c r="K5" t="n">
-        <v>-11.16525516250188</v>
+        <v>-89.09512761020881</v>
       </c>
       <c r="L5" t="n">
-        <v>7.083141633654242</v>
+        <v>-95.19088799831259</v>
       </c>
       <c r="M5" t="n">
-        <v>-104.1974267032271</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-146.8058778035576</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-137.5262020961677</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-28.64922089942061</v>
+        <v>-69.92195739295506</v>
       </c>
     </row>
     <row r="6">
@@ -729,112 +699,96 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>93.39710982732056</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-184.9472286517508</v>
+        <v>-96.74166297190094</v>
       </c>
       <c r="G6" t="n">
-        <v>-263.260859169923</v>
+        <v>-94.92678979304083</v>
       </c>
       <c r="H6" t="n">
-        <v>-121.368822415679</v>
+        <v>-98.50129955805446</v>
       </c>
       <c r="I6" t="n">
-        <v>-232.3328447709642</v>
+        <v>-94.11373658568051</v>
       </c>
       <c r="J6" t="n">
-        <v>77.24774918664677</v>
+        <v>-7.085187145676687</v>
       </c>
       <c r="K6" t="n">
-        <v>918.6090756737849</v>
+        <v>-17.5691882804576</v>
       </c>
       <c r="L6" t="n">
-        <v>150.6942579015963</v>
+        <v>-20.09324522139395</v>
       </c>
       <c r="M6" t="n">
-        <v>117.8421294333755</v>
-      </c>
-      <c r="N6" t="n">
-        <v>632.3397096227205</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-433.0982996561633</v>
-      </c>
-      <c r="P6" t="n">
-        <v>171.9278969638005</v>
+        <v>-33.14686760225175</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-787.1718887245981</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-432.8188798347798</v>
+        <v>439.4977168949771</v>
       </c>
       <c r="G7" t="n">
-        <v>-158.694957276832</v>
+        <v>1400.809741248097</v>
       </c>
       <c r="H7" t="n">
-        <v>-77.40592610634327</v>
+        <v>777.6377473363775</v>
       </c>
       <c r="I7" t="n">
-        <v>-232.3328447709642</v>
+        <v>1776.468797564688</v>
       </c>
       <c r="J7" t="n">
-        <v>77.24774918664677</v>
+        <v>8.11722623316061</v>
       </c>
       <c r="K7" t="n">
-        <v>918.6090756737849</v>
+        <v>16.70948216891404</v>
       </c>
       <c r="L7" t="n">
-        <v>150.6942579015963</v>
+        <v>12.05469936316795</v>
       </c>
       <c r="M7" t="n">
-        <v>-59.0278648082117</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-78.4001834634746</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-63.09738309738311</v>
-      </c>
-      <c r="P7" t="n">
-        <v>87.03980931829014</v>
+        <v>-8.992526171108103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -843,50 +797,39 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-290.0771023593097</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-355.2123281424549</v>
+        <v>-4.792522331153048</v>
       </c>
       <c r="G8" t="n">
-        <v>-151.4605494996418</v>
+        <v>-23.25260906737194</v>
       </c>
       <c r="H8" t="n">
-        <v>-95.37085244481702</v>
+        <v>-15.00638364071368</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40272433538827</v>
+        <v>-7.459216989562586</v>
       </c>
       <c r="J8" t="n">
-        <v>-58.50525369809689</v>
+        <v>8.291457286432172</v>
       </c>
       <c r="K8" t="n">
-        <v>-979.0312580037472</v>
+        <v>21.06741573033708</v>
       </c>
       <c r="L8" t="n">
-        <v>142.426501708798</v>
+        <v>50.6993006993007</v>
       </c>
       <c r="M8" t="n">
-        <v>850.3658982802885</v>
-      </c>
-      <c r="N8" t="n">
-        <v>55.26947508592637</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1125.549457250896</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.225678771674906</v>
+        <v>87.63604701784938</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -895,40 +838,31 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-93.44867870679781</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-180.0911124813598</v>
+        <v>-36.85306740722039</v>
       </c>
       <c r="G9" t="n">
-        <v>-153.3227377181215</v>
+        <v>-31.67003281999495</v>
       </c>
       <c r="H9" t="n">
-        <v>-133.1158748358883</v>
+        <v>41.97677354203484</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40272433538827</v>
+        <v>-4.929941933855087</v>
       </c>
       <c r="J9" t="n">
-        <v>-58.50525369809689</v>
+        <v>-0.3480278422273749</v>
       </c>
       <c r="K9" t="n">
-        <v>-979.0312580037472</v>
+        <v>-9.860788863109049</v>
       </c>
       <c r="L9" t="n">
-        <v>142.426501708798</v>
+        <v>-19.02552204176335</v>
       </c>
       <c r="M9" t="n">
-        <v>-654.2075062532394</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-46.57375853448442</v>
-      </c>
-      <c r="O9" t="n">
-        <v>13.62261289087719</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-29.09349052089755</v>
+        <v>62.5290023201856</v>
       </c>
     </row>
     <row r="10">
@@ -937,206 +871,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>-4054.212025986889</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-1932.667737185634</v>
+        <v>-16.72604719942809</v>
       </c>
       <c r="G10" t="n">
-        <v>-188.9651194659704</v>
+        <v>20.8859607570876</v>
       </c>
       <c r="H10" t="n">
-        <v>8200.386749493917</v>
+        <v>-27.59712766195524</v>
       </c>
       <c r="I10" t="n">
-        <v>-103.2531870338812</v>
+        <v>-54.0908941100646</v>
       </c>
       <c r="J10" t="n">
-        <v>-45.08060767820557</v>
+        <v>4.242156429518342</v>
       </c>
       <c r="K10" t="n">
-        <v>-41.40843272432638</v>
+        <v>7.276034561164173</v>
       </c>
       <c r="L10" t="n">
-        <v>-8.512522271137867</v>
+        <v>-10.2700646633701</v>
       </c>
       <c r="M10" t="n">
-        <v>-67.48645846813255</v>
-      </c>
-      <c r="N10" t="n">
-        <v>26.51077351705121</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-5.577067955901984</v>
-      </c>
-      <c r="P10" t="n">
-        <v>21.07993405058259</v>
+        <v>33.57870894677237</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-502.1372034837289</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-115.0414889484653</v>
+        <v>-32.34769187204741</v>
       </c>
       <c r="G11" t="n">
-        <v>-134.5184593410553</v>
+        <v>-17.74204484043815</v>
       </c>
       <c r="H11" t="n">
-        <v>142.8784578992133</v>
+        <v>45.05530772712861</v>
       </c>
       <c r="I11" t="n">
-        <v>-85.84766688286524</v>
+        <v>11.55858710543266</v>
       </c>
       <c r="J11" t="n">
-        <v>7.255547523013886</v>
+        <v>9.241203899957608</v>
       </c>
       <c r="K11" t="n">
-        <v>123.5870234001637</v>
+        <v>53.28529037727849</v>
       </c>
       <c r="L11" t="n">
-        <v>162.3463717881672</v>
+        <v>34.20941076727427</v>
       </c>
       <c r="M11" t="n">
-        <v>-36.15467900757906</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-39.86207281175231</v>
-      </c>
-      <c r="O11" t="n">
-        <v>179.2554278675029</v>
-      </c>
-      <c r="P11" t="n">
-        <v>314.9351596813816</v>
+        <v>91.30987706655364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-451.370591721469</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-1269.090688868877</v>
+        <v>2.262925032246368</v>
       </c>
       <c r="G12" t="n">
-        <v>-237.3146527497924</v>
+        <v>-28.21087754983905</v>
       </c>
       <c r="H12" t="n">
-        <v>-12.18086504544838</v>
+        <v>-22.1245838320141</v>
       </c>
       <c r="I12" t="n">
-        <v>-125.3097416049048</v>
+        <v>-44.19787233218342</v>
       </c>
       <c r="J12" t="n">
-        <v>-29.32521611779256</v>
+        <v>11.45316120489904</v>
       </c>
       <c r="K12" t="n">
-        <v>-29.49999776610775</v>
+        <v>34.78783026421137</v>
       </c>
       <c r="L12" t="n">
-        <v>-23.617129497684</v>
+        <v>23.01790281329923</v>
       </c>
       <c r="M12" t="n">
-        <v>-1055.708216366529</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2609.007883316507</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-248.2292719576651</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-59.4801396008213</v>
+        <v>13.29071332436071</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-125.2423302476615</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-119.6600862287758</v>
+        <v>-15.55018468450909</v>
       </c>
       <c r="G13" t="n">
-        <v>-626.799076840012</v>
+        <v>93.8911266529357</v>
       </c>
       <c r="H13" t="n">
-        <v>-399.2900171083109</v>
+        <v>12.98601502787756</v>
       </c>
       <c r="I13" t="n">
-        <v>-125.3097416049048</v>
+        <v>-9.986099934157583</v>
       </c>
       <c r="J13" t="n">
-        <v>-29.32521611779256</v>
+        <v>4.692604692604687</v>
       </c>
       <c r="K13" t="n">
-        <v>-29.49999776610775</v>
+        <v>7.514107514107517</v>
       </c>
       <c r="L13" t="n">
-        <v>-23.617129497684</v>
+        <v>8.494208494208493</v>
       </c>
       <c r="M13" t="n">
-        <v>-227.2996634936866</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-120.0574059019932</v>
-      </c>
-      <c r="O13" t="n">
-        <v>542.5886160162972</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-3829.326471923974</v>
+        <v>24.85892485892485</v>
       </c>
     </row>
     <row r="14">
@@ -1145,206 +1043,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>493.439265004895</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-244.8391257069222</v>
+        <v>-21.36129870011342</v>
       </c>
       <c r="G14" t="n">
-        <v>-192.1514626806511</v>
+        <v>-55.01022382178032</v>
       </c>
       <c r="H14" t="n">
-        <v>-52.54576207809204</v>
+        <v>-57.2177294668267</v>
       </c>
       <c r="I14" t="n">
-        <v>683.761233470367</v>
+        <v>-42.70165608898186</v>
       </c>
       <c r="J14" t="n">
-        <v>594.6523970164885</v>
+        <v>0.6629834254143584</v>
       </c>
       <c r="K14" t="n">
-        <v>-1605.947186927833</v>
+        <v>1.357365376056964</v>
       </c>
       <c r="L14" t="n">
-        <v>41.55432256781164</v>
+        <v>0.9977827050997689</v>
       </c>
       <c r="M14" t="n">
-        <v>-30.53311008132972</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-96.22382423618261</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-77.55568689214346</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-87.56593881416416</v>
+        <v>26.84489000278474</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-140.4061467595554</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-632.4616375754039</v>
+        <v>40.60293759549249</v>
       </c>
       <c r="G15" t="n">
-        <v>-101.8949938533383</v>
+        <v>140.3928729319409</v>
       </c>
       <c r="H15" t="n">
-        <v>-121.3025496407241</v>
+        <v>29.44455799484746</v>
       </c>
       <c r="I15" t="n">
-        <v>683.761233470367</v>
+        <v>-1.976722668865747</v>
       </c>
       <c r="J15" t="n">
-        <v>594.6523970164885</v>
+        <v>6.300768386388595</v>
       </c>
       <c r="K15" t="n">
-        <v>-1605.947186927833</v>
+        <v>2.107574094401758</v>
       </c>
       <c r="L15" t="n">
-        <v>41.55432256781164</v>
+        <v>12.22832052689353</v>
       </c>
       <c r="M15" t="n">
-        <v>21.27002186231194</v>
-      </c>
-      <c r="N15" t="n">
-        <v>74.99622783855156</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-68.28885132250726</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-99.27986459925746</v>
+        <v>27.4423710208562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>-134.9148023232916</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-109.903455675682</v>
+        <v>-52.57362876315248</v>
       </c>
       <c r="G16" t="n">
-        <v>-153.2741652122322</v>
+        <v>-52.21811866957468</v>
       </c>
       <c r="H16" t="n">
-        <v>-103.2103283203447</v>
+        <v>-27.66563396468225</v>
       </c>
       <c r="I16" t="n">
-        <v>-199.4990943727739</v>
+        <v>-40.84718577778323</v>
       </c>
       <c r="J16" t="n">
-        <v>-130.4242976430818</v>
+        <v>-0.748616638948252</v>
       </c>
       <c r="K16" t="n">
-        <v>-119.4068071882886</v>
+        <v>9.099635339288806</v>
       </c>
       <c r="L16" t="n">
-        <v>-77.57660333097004</v>
+        <v>12.9470572373086</v>
       </c>
       <c r="M16" t="n">
-        <v>-49.83578187435941</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-482.9383806377709</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-462.5896581945665</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1014.797674269468</v>
+        <v>25.71128439704091</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>44.512439451148</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-115.1163052828615</v>
+        <v>-3.444267335769484</v>
       </c>
       <c r="G17" t="n">
-        <v>-940.1772139418121</v>
+        <v>41.822072159299</v>
       </c>
       <c r="H17" t="n">
-        <v>228.840892287696</v>
+        <v>14.75207343704305</v>
       </c>
       <c r="I17" t="n">
-        <v>-199.4990943727739</v>
+        <v>13.52690291615346</v>
       </c>
       <c r="J17" t="n">
-        <v>-130.4242976430818</v>
+        <v>4.148889606111926</v>
       </c>
       <c r="K17" t="n">
-        <v>-119.4068071882886</v>
+        <v>4.861593148849826</v>
       </c>
       <c r="L17" t="n">
-        <v>-77.57660333097004</v>
+        <v>14.71078472550745</v>
       </c>
       <c r="M17" t="n">
-        <v>-158.926655764955</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-177.4180276662366</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-149.5917819996875</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-90.42598894412265</v>
+        <v>18.23097430818681</v>
       </c>
     </row>
     <row r="18">
@@ -1353,60 +1215,51 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-109.7855716570927</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>21.87725026062757</v>
+        <v>-8.679673033731596</v>
       </c>
       <c r="G18" t="n">
-        <v>-204.8772015563999</v>
+        <v>-12.22666347858648</v>
       </c>
       <c r="H18" t="n">
-        <v>-153.2260627034742</v>
+        <v>-34.05746997874871</v>
       </c>
       <c r="I18" t="n">
-        <v>-153.6712061175835</v>
+        <v>0.7949829813027464</v>
       </c>
       <c r="J18" t="n">
-        <v>66.78749312132011</v>
+        <v>6.934557979334106</v>
       </c>
       <c r="K18" t="n">
-        <v>-101.4504822660815</v>
+        <v>14.64795667159036</v>
       </c>
       <c r="L18" t="n">
-        <v>-47.56512937401116</v>
+        <v>36.40890451083772</v>
       </c>
       <c r="M18" t="n">
-        <v>-214.4008647333714</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-68.72160782997661</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-82.07218686102158</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-97.34858899085043</v>
+        <v>42.63399693721287</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1415,50 +1268,43 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-158.3077323655681</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-47.03497306505582</v>
+        <v>343.2126749161559</v>
       </c>
       <c r="G19" t="n">
-        <v>54.81234915185284</v>
+        <v>224.074116906313</v>
       </c>
       <c r="H19" t="n">
-        <v>-140.3714529749132</v>
+        <v>30.29926885368079</v>
       </c>
       <c r="I19" t="n">
-        <v>-153.3340807922854</v>
+        <v>65.98666204078486</v>
       </c>
       <c r="J19" t="n">
-        <v>13.48516497795049</v>
+        <v>2.254670388662223</v>
       </c>
       <c r="K19" t="n">
-        <v>67.97918063312804</v>
+        <v>18.53124328967147</v>
       </c>
       <c r="L19" t="n">
-        <v>-85.191972773709</v>
+        <v>34.37835516426884</v>
       </c>
       <c r="M19" t="n">
-        <v>-1227.627448053461</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-64.09110032927805</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-73.78381867397688</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-72.46258380485361</v>
+        <v>51.62121537470475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1467,50 +1313,39 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1615.076484269394</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-30.59602032315597</v>
+        <v>11.59440092305824</v>
       </c>
       <c r="G20" t="n">
-        <v>-142.995058216568</v>
+        <v>418.2612987379257</v>
       </c>
       <c r="H20" t="n">
-        <v>217.5174082305699</v>
+        <v>113.4167586086755</v>
       </c>
       <c r="I20" t="n">
-        <v>433.3455841376363</v>
+        <v>12.17513391426435</v>
       </c>
       <c r="J20" t="n">
-        <v>225.1185625079511</v>
+        <v>11.18192352259559</v>
       </c>
       <c r="K20" t="n">
-        <v>724.8315788742644</v>
+        <v>18.45679012345681</v>
       </c>
       <c r="L20" t="n">
-        <v>-721.5483877480768</v>
+        <v>17.29828850855747</v>
       </c>
       <c r="M20" t="n">
-        <v>19.51493563177316</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.71185908128641</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-21.46019697219992</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23.0823302938918</v>
+        <v>10.03440366972477</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1519,40 +1354,31 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-443.867239224107</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-307.2933400392172</v>
+        <v>-46.62539963267805</v>
       </c>
       <c r="G21" t="n">
-        <v>-1440.302397604064</v>
+        <v>-62.91272702537243</v>
       </c>
       <c r="H21" t="n">
-        <v>6847.767005366793</v>
+        <v>-39.14971770627849</v>
       </c>
       <c r="I21" t="n">
-        <v>433.3455841376363</v>
+        <v>29.57077749812938</v>
       </c>
       <c r="J21" t="n">
-        <v>225.1185625079511</v>
+        <v>7.139134966128179</v>
       </c>
       <c r="K21" t="n">
-        <v>724.8315788742644</v>
+        <v>11.09953100573215</v>
       </c>
       <c r="L21" t="n">
-        <v>-721.5483877480768</v>
+        <v>48.30640958832725</v>
       </c>
       <c r="M21" t="n">
-        <v>369.0943400572821</v>
-      </c>
-      <c r="N21" t="n">
-        <v>395.9195271552808</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-3295.53043956759</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-279.8191228238817</v>
+        <v>41.63626889004689</v>
       </c>
     </row>
     <row r="22">
@@ -1561,206 +1387,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-486.8382510453548</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-193.7856994820027</v>
+        <v>-66.19039974313694</v>
       </c>
       <c r="G22" t="n">
-        <v>-405.7526619469388</v>
+        <v>-43.52373290426388</v>
       </c>
       <c r="H22" t="n">
-        <v>-87.09577874937602</v>
+        <v>-57.43734842360549</v>
       </c>
       <c r="I22" t="n">
-        <v>-192.4244027059652</v>
+        <v>-56.07008760951189</v>
       </c>
       <c r="J22" t="n">
-        <v>-17.88948299136577</v>
+        <v>1.943308517702985</v>
       </c>
       <c r="K22" t="n">
-        <v>-129.7891535479697</v>
+        <v>-1.406213027752421</v>
       </c>
       <c r="L22" t="n">
-        <v>-61.46904384526041</v>
+        <v>22.80842105263158</v>
       </c>
       <c r="M22" t="n">
-        <v>-215.6016198670073</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-27.75650559895438</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-85.04543350551847</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-59.15075293101778</v>
+        <v>-32.90623849834376</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-416.4320849444265</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-274.7591132545285</v>
+        <v>232.5735992402659</v>
       </c>
       <c r="G23" t="n">
-        <v>-419.073826995775</v>
+        <v>508.8319088319088</v>
       </c>
       <c r="H23" t="n">
-        <v>-136.1754881758872</v>
+        <v>78.86989553656221</v>
       </c>
       <c r="I23" t="n">
-        <v>-421.056568344972</v>
+        <v>-49.24026590693257</v>
       </c>
       <c r="J23" t="n">
-        <v>-7.759189533853728</v>
+        <v>-18.57235917303802</v>
       </c>
       <c r="K23" t="n">
-        <v>-145.9362328292724</v>
+        <v>-38.09442177803682</v>
       </c>
       <c r="L23" t="n">
-        <v>-56.28346641799074</v>
+        <v>-33.80875647135461</v>
       </c>
       <c r="M23" t="n">
-        <v>-209.6406495547401</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-90.4460394770571</v>
-      </c>
-      <c r="O23" t="n">
-        <v>-128.5802913145118</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-36.59079025631804</v>
+        <v>-13.33356190214969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>-100.1980552466017</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-521.037844455085</v>
+        <v>74.90039840637451</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.871921851682044</v>
+        <v>-62.27712137486574</v>
       </c>
       <c r="H24" t="n">
-        <v>-145.0842779266314</v>
+        <v>-59.5205163669894</v>
       </c>
       <c r="I24" t="n">
-        <v>-182.4530294366172</v>
+        <v>-41.85430463576159</v>
       </c>
       <c r="J24" t="n">
-        <v>-71.93250626472077</v>
+        <v>5.564645385334571</v>
       </c>
       <c r="K24" t="n">
-        <v>-80.62580926934125</v>
+        <v>5.748260636874501</v>
       </c>
       <c r="L24" t="n">
-        <v>-164.8803590296765</v>
+        <v>1.845915951226574</v>
       </c>
       <c r="M24" t="n">
-        <v>-56.70276325616136</v>
-      </c>
-      <c r="N24" t="n">
-        <v>105.3020901768987</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-47.78413252505105</v>
-      </c>
-      <c r="P24" t="n">
-        <v>80.48453985274739</v>
+        <v>-0.8172549019607884</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-68.47632072550509</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-174.8408836238236</v>
+        <v>-18.90660592255125</v>
       </c>
       <c r="G25" t="n">
-        <v>-278.5398595952868</v>
+        <v>12.24373576309795</v>
       </c>
       <c r="H25" t="n">
-        <v>-239.2707357565653</v>
+        <v>313.5535307517084</v>
       </c>
       <c r="I25" t="n">
-        <v>-182.4530294366172</v>
+        <v>125.2657555049355</v>
       </c>
       <c r="J25" t="n">
-        <v>-71.93250626472077</v>
+        <v>-7.083774850147871</v>
       </c>
       <c r="K25" t="n">
-        <v>-80.62580926934125</v>
+        <v>-1.152951968242417</v>
       </c>
       <c r="L25" t="n">
-        <v>-164.8803590296765</v>
+        <v>11.86164576381091</v>
       </c>
       <c r="M25" t="n">
-        <v>-42.25326714188716</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-182.6848199721686</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-232.5101832993888</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-5254.652159931458</v>
+        <v>30.47810340192001</v>
       </c>
     </row>
     <row r="26">
@@ -1769,112 +1559,96 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>-282.3853245230486</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-695.6204711110269</v>
+        <v>-5.003692762186115</v>
       </c>
       <c r="G26" t="n">
-        <v>-254.7675269958626</v>
+        <v>-8.108590819789248</v>
       </c>
       <c r="H26" t="n">
-        <v>-202.5309744666205</v>
+        <v>61.36114160263448</v>
       </c>
       <c r="I26" t="n">
-        <v>-163.3666048046262</v>
+        <v>-25.34281361097003</v>
       </c>
       <c r="J26" t="n">
-        <v>-111.0018214016407</v>
+        <v>12.81327800829875</v>
       </c>
       <c r="K26" t="n">
-        <v>-104.5434034107055</v>
+        <v>26.10389610389611</v>
       </c>
       <c r="L26" t="n">
-        <v>-44.72306974954228</v>
+        <v>44.7710330138445</v>
       </c>
       <c r="M26" t="n">
-        <v>-144.8658253500367</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-38.80108311253667</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-61.18872192889919</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-101.7121977174671</v>
+        <v>59.51654541187514</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-46.5196706704364</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-393.0492256071388</v>
+        <v>-29.69387755102041</v>
       </c>
       <c r="G27" t="n">
-        <v>-349.8591093275519</v>
+        <v>11.7444120505345</v>
       </c>
       <c r="H27" t="n">
-        <v>-4462.758985019464</v>
+        <v>-56.54518950437318</v>
       </c>
       <c r="I27" t="n">
-        <v>-163.3666048046262</v>
+        <v>-12.02623906705539</v>
       </c>
       <c r="J27" t="n">
-        <v>-111.0018214016407</v>
+        <v>8.900985728998084</v>
       </c>
       <c r="K27" t="n">
-        <v>-104.5434034107055</v>
+        <v>0.9857289980873941</v>
       </c>
       <c r="L27" t="n">
-        <v>-44.72306974954228</v>
+        <v>10.04855083124908</v>
       </c>
       <c r="M27" t="n">
-        <v>-129.8443892950565</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-166.1435812908542</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-334.2524446287277</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-245.7840106266674</v>
+        <v>7.400323672208329</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1883,84 +1657,72 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>-272.2439280790474</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-225.6239579822967</v>
+        <v>87.72825062674467</v>
       </c>
       <c r="G28" t="n">
-        <v>-384.6673460554013</v>
+        <v>-5.507526535287906</v>
       </c>
       <c r="H28" t="n">
-        <v>-973.9274166706979</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+        <v>60.32555879494655</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-25.26666713853951</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.967421197376771</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-5.192761605035406</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-9.159442140972482</v>
+      </c>
       <c r="M28" t="n">
-        <v>-149.2725470425303</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-105.6026619055633</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-196.2681685605838</v>
-      </c>
-      <c r="P28" t="n">
-        <v>-362.8900927840721</v>
+        <v>-8.642911296436685</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-544.4292059985111</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-239.4711059671549</v>
+        <v>-35.447605697833</v>
       </c>
       <c r="G29" t="n">
-        <v>-129.1484737371428</v>
+        <v>29.32546597969389</v>
       </c>
       <c r="H29" t="n">
-        <v>-208.1186165168752</v>
+        <v>-1.143165631156236</v>
       </c>
       <c r="I29" t="n">
-        <v>-89.32248296581864</v>
+        <v>5.382444309743901</v>
       </c>
       <c r="J29" t="n">
-        <v>-221.9268074374132</v>
+        <v>2.385892116182569</v>
       </c>
       <c r="K29" t="n">
-        <v>-93.20295982746066</v>
+        <v>-9.087136929460586</v>
       </c>
       <c r="L29" t="n">
-        <v>173.899494927138</v>
+        <v>-2.904564315352709</v>
       </c>
       <c r="M29" t="n">
-        <v>-85.65000859057334</v>
-      </c>
-      <c r="N29" t="n">
-        <v>17.42556390977427</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-85.20724585436194</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-3.235403916768736</v>
+        <v>-0.0622406639004173</v>
       </c>
     </row>
     <row r="30">
@@ -1969,206 +1731,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>-130.2941810712884</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-34.52681434198122</v>
+        <v>45.41018201002374</v>
       </c>
       <c r="G30" t="n">
-        <v>-112.7678879859985</v>
+        <v>635.981308411215</v>
       </c>
       <c r="H30" t="n">
-        <v>-113.0078005699619</v>
+        <v>115.33203125</v>
       </c>
       <c r="I30" t="n">
-        <v>40.23253412138728</v>
+        <v>177.1493212669683</v>
       </c>
       <c r="J30" t="n">
-        <v>74.73155761342056</v>
+        <v>-6.071208067503607</v>
       </c>
       <c r="K30" t="n">
-        <v>-305.321130670826</v>
+        <v>-0.566448801742915</v>
       </c>
       <c r="L30" t="n">
-        <v>295.4742527003894</v>
+        <v>2.815949538184276</v>
       </c>
       <c r="M30" t="n">
-        <v>-244.6544358937895</v>
-      </c>
-      <c r="N30" t="n">
-        <v>41.0855677590525</v>
-      </c>
-      <c r="O30" t="n">
-        <v>-32.86719641727677</v>
-      </c>
-      <c r="P30" t="n">
-        <v>-58.70334388700091</v>
+        <v>-1.764959104606113</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>-320.8099556736919</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-37.34303005122552</v>
+        <v>-15.85487528344671</v>
       </c>
       <c r="G31" t="n">
-        <v>-257.5006032656782</v>
+        <v>-62.98412698412699</v>
       </c>
       <c r="H31" t="n">
-        <v>11044.84246437889</v>
+        <v>-61.4421768707483</v>
       </c>
       <c r="I31" t="n">
-        <v>262.1002923073249</v>
+        <v>-5.687074829931973</v>
       </c>
       <c r="J31" t="n">
-        <v>114.7896338247621</v>
+        <v>-3.045574057843998</v>
       </c>
       <c r="K31" t="n">
-        <v>291.0159048169777</v>
+        <v>2.169149868536376</v>
       </c>
       <c r="L31" t="n">
-        <v>69.0720249667292</v>
+        <v>-10.21034180543384</v>
       </c>
       <c r="M31" t="n">
-        <v>56.28897636109473</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-431.0147979356144</v>
-      </c>
-      <c r="O31" t="n">
-        <v>71.22340632741476</v>
-      </c>
-      <c r="P31" t="n">
-        <v>-76.3796385920603</v>
+        <v>-19.67572304995619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>33.76587258085935</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-24.99850398282996</v>
+        <v>-36.26058648820409</v>
       </c>
       <c r="G32" t="n">
-        <v>-679.590100218684</v>
+        <v>403.9220712637785</v>
       </c>
       <c r="H32" t="n">
-        <v>-30.28061502521929</v>
+        <v>7.43015782800682</v>
       </c>
       <c r="I32" t="n">
-        <v>936.5871153739059</v>
+        <v>-10.27759267542378</v>
       </c>
       <c r="J32" t="n">
-        <v>-170.7972299466368</v>
+        <v>8.507392776757618</v>
       </c>
       <c r="K32" t="n">
-        <v>-227.6953386949396</v>
+        <v>14.89838914980467</v>
       </c>
       <c r="L32" t="n">
-        <v>-187.8770466971614</v>
+        <v>29.41505087159002</v>
       </c>
       <c r="M32" t="n">
-        <v>-93.05641421947452</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-135.4713371823041</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-89.01011874465934</v>
-      </c>
-      <c r="P32" t="n">
-        <v>-273.4853168469862</v>
+        <v>55.5099446332248</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-84.15591918891282</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>155.0669506106313</v>
+        <v>-52.40105809339709</v>
       </c>
       <c r="G33" t="n">
-        <v>-1102.347909238011</v>
+        <v>-61.05809339709024</v>
       </c>
       <c r="H33" t="n">
-        <v>-77.95958788554024</v>
+        <v>-62.42649303082715</v>
       </c>
       <c r="I33" t="n">
-        <v>936.5871153739059</v>
+        <v>-33.79692745955845</v>
       </c>
       <c r="J33" t="n">
-        <v>-170.7972299466368</v>
+        <v>-5.013122056132605</v>
       </c>
       <c r="K33" t="n">
-        <v>-227.6953386949396</v>
+        <v>-11.53403903381937</v>
       </c>
       <c r="L33" t="n">
-        <v>-187.8770466971614</v>
+        <v>-14.5874479033361</v>
       </c>
       <c r="M33" t="n">
-        <v>151.9819248454067</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-117.518679257574</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-11.84115853152295</v>
-      </c>
-      <c r="P33" t="n">
-        <v>442.4918428145869</v>
+        <v>5.314528236296338</v>
       </c>
     </row>
     <row r="34">
@@ -2177,200 +1903,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>-110.2514280520824</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-270.1850743963933</v>
+        <v>389.2185477939465</v>
       </c>
       <c r="G34" t="n">
-        <v>84.74094599372344</v>
+        <v>-40.82997300855011</v>
       </c>
       <c r="H34" t="n">
-        <v>-126.486257250621</v>
+        <v>68.36726070439431</v>
       </c>
       <c r="I34" t="n">
-        <v>71.7194452799101</v>
+        <v>25.412054267324</v>
       </c>
       <c r="J34" t="n">
-        <v>-60.53574800532891</v>
+        <v>-5.746251957932407</v>
       </c>
       <c r="K34" t="n">
-        <v>63.60937370232732</v>
+        <v>22.39074848907484</v>
       </c>
       <c r="L34" t="n">
-        <v>15.77236995475731</v>
+        <v>44.56036790445467</v>
       </c>
       <c r="M34" t="n">
-        <v>-48.07368648182156</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-1249.596774193761</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-288.4814267623471</v>
-      </c>
-      <c r="P34" t="n">
-        <v>-135.3100369397309</v>
+        <v>202.4484813671286</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-104.2790960672531</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>63.2320311180663</v>
+        <v>-38.08725989707207</v>
       </c>
       <c r="G35" t="n">
-        <v>-187.8009745028194</v>
+        <v>-49.7624483849773</v>
       </c>
       <c r="H35" t="n">
-        <v>-514.2181900158743</v>
+        <v>-71.70166980753704</v>
       </c>
       <c r="I35" t="n">
-        <v>71.7194452799101</v>
+        <v>-13.52583593856676</v>
       </c>
       <c r="J35" t="n">
-        <v>-60.53574800532891</v>
+        <v>6.573761929632958</v>
       </c>
       <c r="K35" t="n">
-        <v>63.60937370232732</v>
+        <v>7.003466122216418</v>
       </c>
       <c r="L35" t="n">
-        <v>15.77236995475731</v>
+        <v>7.988699491951949</v>
       </c>
       <c r="M35" t="n">
-        <v>-87.63389336679003</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-133.9403138546725</v>
-      </c>
-      <c r="O35" t="n">
-        <v>-110.7051942027674</v>
-      </c>
-      <c r="P35" t="n">
-        <v>-32.62889262406453</v>
+        <v>5.367741322824171</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>204.5518426718266</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>-140.3437731745226</v>
+        <v>18.38293273223894</v>
       </c>
       <c r="G36" t="n">
-        <v>-1115.312998998648</v>
+        <v>17.45015166244571</v>
       </c>
       <c r="H36" t="n">
-        <v>-3523.81666903449</v>
+        <v>-40.05266402672172</v>
       </c>
       <c r="I36" t="n">
-        <v>-68.34992509962639</v>
+        <v>-61.20582613381254</v>
       </c>
       <c r="J36" t="n">
-        <v>-216.6361673642422</v>
+        <v>-0.2409940415060213</v>
       </c>
       <c r="K36" t="n">
-        <v>51.75553804314229</v>
+        <v>20.24197864560132</v>
       </c>
       <c r="L36" t="n">
-        <v>-370.2257439789421</v>
+        <v>46.99772640874932</v>
       </c>
       <c r="M36" t="n">
-        <v>-5.43014259034193</v>
-      </c>
-      <c r="N36" t="n">
-        <v>201.8877297565809</v>
-      </c>
-      <c r="O36" t="n">
-        <v>-137.0628174362237</v>
-      </c>
-      <c r="P36" t="n">
-        <v>14.5735449519415</v>
+        <v>207.9489241136381</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.30705827586466</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>-296.2539349450762</v>
+        <v>-10.7186712184563</v>
       </c>
       <c r="G37" t="n">
-        <v>49.17221610106055</v>
+        <v>9.242477528202979</v>
       </c>
       <c r="H37" t="n">
-        <v>-549.7419005586889</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>-9.760121457489827</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-116.8748921484037</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-171.8780487804877</v>
+        <v>-62.00647007766699</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24.7096813155193</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.717514960195246</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.26867180321794</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12.32100917442597</v>
+      </c>
+      <c r="M37" t="n">
+        <v>57.26376070650166</v>
       </c>
     </row>
     <row r="38">
@@ -2379,164 +2075,137 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>-1335.13194802483</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-400.9658413102697</v>
+        <v>5.938337132493636</v>
       </c>
       <c r="G38" t="n">
-        <v>-58.26983655698515</v>
+        <v>-82.31138300148076</v>
       </c>
       <c r="H38" t="n">
-        <v>-102.9169609207978</v>
+        <v>91.17823684842662</v>
       </c>
       <c r="I38" t="n">
-        <v>-321.6146320673876</v>
+        <v>30.97050232443329</v>
       </c>
       <c r="J38" t="n">
-        <v>-40.67077881178277</v>
+        <v>-9.280614485766522</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.33929617805992</v>
+        <v>-12.38680529524335</v>
       </c>
       <c r="L38" t="n">
-        <v>-33.72674573887157</v>
+        <v>-29.78208679107054</v>
       </c>
       <c r="M38" t="n">
-        <v>15.8153755408574</v>
-      </c>
-      <c r="N38" t="n">
-        <v>130.8854655104925</v>
-      </c>
-      <c r="O38" t="n">
-        <v>18.55955570976896</v>
-      </c>
-      <c r="P38" t="n">
-        <v>-59.00300835677484</v>
+        <v>-42.16413212879475</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-570.0628174386352</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-440.6206999761469</v>
+        <v>101.8470237160358</v>
       </c>
       <c r="G39" t="n">
-        <v>-158.7105428617824</v>
+        <v>-57.12737553007696</v>
       </c>
       <c r="H39" t="n">
-        <v>-218.5375760726482</v>
+        <v>-39.20213601382127</v>
       </c>
       <c r="I39" t="n">
-        <v>-321.6146320673876</v>
+        <v>98.33673629652898</v>
       </c>
       <c r="J39" t="n">
-        <v>-40.67077881178277</v>
+        <v>-11.09172042889687</v>
       </c>
       <c r="K39" t="n">
-        <v>-13.33929617805992</v>
+        <v>-13.21819021133341</v>
       </c>
       <c r="L39" t="n">
-        <v>-33.72674573887157</v>
+        <v>-23.39079230327527</v>
       </c>
       <c r="M39" t="n">
-        <v>970.5448224874046</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-441.4135737009537</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-16.080036808294</v>
-      </c>
-      <c r="P39" t="n">
-        <v>-121.3465617097642</v>
+        <v>-51.8965963723161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>-272.6760702784945</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-144.6677224025889</v>
+        <v>-61.06825906638809</v>
       </c>
       <c r="G40" t="n">
-        <v>-303.8059774236746</v>
+        <v>-50.28265371137305</v>
       </c>
       <c r="H40" t="n">
-        <v>-531.009913858323</v>
+        <v>-58.44144863857267</v>
       </c>
       <c r="I40" t="n">
-        <v>-4943.522224364628</v>
+        <v>4.74010067114094</v>
       </c>
       <c r="J40" t="n">
-        <v>-3.26623080040061</v>
+        <v>-2.867052023121392</v>
       </c>
       <c r="K40" t="n">
-        <v>-142.9169072802986</v>
+        <v>-6.059928443649376</v>
       </c>
       <c r="L40" t="n">
-        <v>-311.3859153011273</v>
+        <v>1.867119301648875</v>
       </c>
       <c r="M40" t="n">
-        <v>-1111.359022166986</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.377812942132226</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-32.93379502204858</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-21.83683350918519</v>
+        <v>46.50392327811682</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2545,32 +2214,31 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-318.3953281750477</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-142.6861805692858</v>
+        <v>209.9937364938142</v>
       </c>
       <c r="G41" t="n">
-        <v>-462.2225121766699</v>
+        <v>104.2325923386586</v>
       </c>
       <c r="H41" t="n">
-        <v>-104.7500095039243</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+        <v>783.2921372973371</v>
+      </c>
+      <c r="I41" t="n">
+        <v>329.3311504507001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-13.44917876696025</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-30.05236848369435</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-59.66436562723161</v>
+      </c>
       <c r="M41" t="n">
-        <v>34.00514579759778</v>
-      </c>
-      <c r="N41" t="n">
-        <v>79.65408805031437</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-259.433962264151</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-265.7906558849956</v>
+        <v>-83.62294691740061</v>
       </c>
     </row>
     <row r="42">
@@ -2579,60 +2247,51 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>1</v>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-112.3167582528333</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-173.2768609186564</v>
+        <v>-57.84170609930197</v>
       </c>
       <c r="G42" t="n">
-        <v>-118.9612128688171</v>
+        <v>-66.38250706628541</v>
       </c>
       <c r="H42" t="n">
-        <v>-133.6610727055967</v>
+        <v>-71.33495067012745</v>
       </c>
       <c r="I42" t="n">
-        <v>63.73753554080078</v>
+        <v>-51.52629344285344</v>
       </c>
       <c r="J42" t="n">
-        <v>-573.4205159105118</v>
+        <v>3.186888231277028</v>
       </c>
       <c r="K42" t="n">
-        <v>-156.191542475551</v>
+        <v>17.25297465080187</v>
       </c>
       <c r="L42" t="n">
-        <v>-101.095797117868</v>
+        <v>69.7752808988764</v>
       </c>
       <c r="M42" t="n">
-        <v>-96.15786591366961</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-175.3673866280513</v>
-      </c>
-      <c r="O42" t="n">
-        <v>-50.9669756793034</v>
-      </c>
-      <c r="P42" t="n">
-        <v>20.90876030533232</v>
+        <v>150.9966777408638</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -2641,144 +2300,117 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-108.2562487916358</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-154.0526440109462</v>
+        <v>223.7538442493341</v>
       </c>
       <c r="G43" t="n">
-        <v>192.0180371368383</v>
+        <v>62.25729858580566</v>
       </c>
       <c r="H43" t="n">
-        <v>-140.7183953035652</v>
+        <v>218.1085105724504</v>
       </c>
       <c r="I43" t="n">
-        <v>-16.6525898244086</v>
+        <v>-6.649066908111554</v>
       </c>
       <c r="J43" t="n">
-        <v>-2538.819579009172</v>
+        <v>-3.684094418707261</v>
       </c>
       <c r="K43" t="n">
-        <v>-183.1701372610975</v>
+        <v>12.46415177586587</v>
       </c>
       <c r="L43" t="n">
-        <v>-148.1589938185947</v>
+        <v>10.43459077873374</v>
       </c>
       <c r="M43" t="n">
-        <v>-152.3031660895734</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-311.3363206372916</v>
-      </c>
-      <c r="O43" t="n">
-        <v>-114.7150683215964</v>
-      </c>
-      <c r="P43" t="n">
-        <v>-54.41953727906398</v>
+        <v>61.68100595632033</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>-132.0687436157178</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.091270652761507</v>
+        <v>-68.47528916929548</v>
       </c>
       <c r="G44" t="n">
-        <v>46.58772235086278</v>
+        <v>-59.71242357051669</v>
       </c>
       <c r="H44" t="n">
-        <v>-122.8758691847795</v>
+        <v>-66.0475651189128</v>
       </c>
       <c r="I44" t="n">
-        <v>135.270614743072</v>
+        <v>-45.85026641379933</v>
       </c>
       <c r="J44" t="n">
-        <v>236.8196183948904</v>
+        <v>1.12085769980507</v>
       </c>
       <c r="K44" t="n">
-        <v>-3.636686550388203</v>
+        <v>11.34961094714246</v>
       </c>
       <c r="L44" t="n">
-        <v>79.29331962103204</v>
+        <v>24.02869097429766</v>
       </c>
       <c r="M44" t="n">
-        <v>-54.64278621337135</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-42.49036777583184</v>
-      </c>
-      <c r="O44" t="n">
-        <v>-66.91397030001127</v>
-      </c>
-      <c r="P44" t="n">
-        <v>-54.39903004176207</v>
+        <v>26.56297651723087</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-218.2534527288703</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-284.7251296662109</v>
+        <v>216.6777851901267</v>
       </c>
       <c r="G45" t="n">
-        <v>-303.1660089359492</v>
+        <v>104.3529019346231</v>
       </c>
       <c r="H45" t="n">
-        <v>-224.2771430361189</v>
+        <v>210.7404936624416</v>
       </c>
       <c r="I45" t="n">
-        <v>1218.251236683237</v>
+        <v>16.58655770513676</v>
       </c>
       <c r="J45" t="n">
-        <v>-364.6468756646565</v>
+        <v>-1.228915662650598</v>
       </c>
       <c r="K45" t="n">
-        <v>341.6070121406456</v>
+        <v>1.084337349397597</v>
       </c>
       <c r="L45" t="n">
-        <v>140.9214983399187</v>
+        <v>-6.867469879518076</v>
       </c>
       <c r="M45" t="n">
-        <v>157.6101598953551</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.242227324460043</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-21.50353737044045</v>
-      </c>
-      <c r="P45" t="n">
-        <v>20.15416853764401</v>
+        <v>16.84337349397591</v>
       </c>
     </row>
     <row r="46">
@@ -2787,102 +2419,84 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>-396.6690655031249</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-218.888655929074</v>
+        <v>116.8559080649287</v>
       </c>
       <c r="G46" t="n">
-        <v>-302.4628834319656</v>
+        <v>12.19227991660223</v>
       </c>
       <c r="H46" t="n">
-        <v>-415.1774705196432</v>
+        <v>49.97137464112027</v>
       </c>
       <c r="I46" t="n">
-        <v>162.7674199514945</v>
+        <v>123.1545542314324</v>
       </c>
       <c r="J46" t="n">
-        <v>-56.57245067541277</v>
+        <v>-6.727037516170769</v>
       </c>
       <c r="K46" t="n">
-        <v>-75.40289121073475</v>
+        <v>18.78088962108731</v>
       </c>
       <c r="L46" t="n">
-        <v>-252.1141863915769</v>
+        <v>161.231884057971</v>
       </c>
       <c r="M46" t="n">
-        <v>3.283779004645851</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-162.5123385402091</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-112.7547255403829</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-168.3300455927175</v>
+        <v>38.65384615384615</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-111.3528721188996</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-131.7132173749937</v>
+        <v>-0.2314392568866539</v>
       </c>
       <c r="G47" t="n">
-        <v>-121.8381245050756</v>
+        <v>-51.33411255079226</v>
       </c>
       <c r="H47" t="n">
-        <v>-103.9744568130104</v>
+        <v>48.03652206680484</v>
       </c>
       <c r="I47" t="n">
-        <v>83.52709508766844</v>
+        <v>-55.52334150900297</v>
       </c>
       <c r="J47" t="n">
-        <v>-35.55473553492997</v>
+        <v>-2.912621359223301</v>
       </c>
       <c r="K47" t="n">
-        <v>-28.7995248375262</v>
+        <v>38.55755894590847</v>
       </c>
       <c r="L47" t="n">
-        <v>-57.22641195520115</v>
+        <v>84.1886269070735</v>
       </c>
       <c r="M47" t="n">
-        <v>-70.12275983103797</v>
-      </c>
-      <c r="N47" t="n">
-        <v>90.02676282088068</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-771.1577158506034</v>
-      </c>
-      <c r="P47" t="n">
-        <v>89.69017962783441</v>
+        <v>69.76421636615811</v>
       </c>
     </row>
     <row r="48">
@@ -2891,8 +2505,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2901,92 +2517,72 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>-110.9393705583847</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-117.6043416768111</v>
+        <v>67.95820102906717</v>
       </c>
       <c r="G48" t="n">
-        <v>124.4156653688838</v>
+        <v>57.6088212392937</v>
       </c>
       <c r="H48" t="n">
-        <v>-85.80241455022779</v>
+        <v>37.7604875607036</v>
       </c>
       <c r="I48" t="n">
-        <v>-108.8511152266847</v>
+        <v>38.20991065034317</v>
       </c>
       <c r="J48" t="n">
-        <v>-206.261403412404</v>
+        <v>-8.905380333951754</v>
       </c>
       <c r="K48" t="n">
-        <v>-183.0277202305481</v>
+        <v>-5.32658471920945</v>
       </c>
       <c r="L48" t="n">
-        <v>-136.0573010478286</v>
+        <v>-5.667627281460133</v>
       </c>
       <c r="M48" t="n">
-        <v>-96.01144618093753</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-362.4000725097413</v>
-      </c>
-      <c r="O48" t="n">
-        <v>-11.47547951756002</v>
-      </c>
-      <c r="P48" t="n">
-        <v>24.27372428170041</v>
+        <v>-0.9581442259203112</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>-598.6930202033437</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-240.8012381599142</v>
+        <v>21.42292533311963</v>
       </c>
       <c r="G49" t="n">
-        <v>-466.0550938060352</v>
+        <v>-43.11495086075636</v>
       </c>
       <c r="H49" t="n">
-        <v>-360.3847166004871</v>
+        <v>-67.41752147337593</v>
       </c>
       <c r="I49" t="n">
-        <v>162.7674199514945</v>
+        <v>-53.21522369465915</v>
       </c>
       <c r="J49" t="n">
-        <v>-56.57245067541277</v>
+        <v>-5.142566191446036</v>
       </c>
       <c r="K49" t="n">
-        <v>-75.40289121073475</v>
+        <v>4.404276985743373</v>
       </c>
       <c r="L49" t="n">
-        <v>-252.1141863915769</v>
+        <v>7.510183299388991</v>
       </c>
       <c r="M49" t="n">
-        <v>-1075.308878294504</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-197.6811505740468</v>
-      </c>
-      <c r="O49" t="n">
-        <v>-254.7403659844066</v>
-      </c>
-      <c r="P49" t="n">
-        <v>-331.8813196493541</v>
+        <v>49.38900203665987</v>
       </c>
     </row>
     <row r="50">
@@ -2995,206 +2591,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1</v>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>64.59291977680523</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-133.4623258501241</v>
+        <v>-54.67870155680689</v>
       </c>
       <c r="G50" t="n">
-        <v>-140.9286633418392</v>
+        <v>-44.83975005039306</v>
       </c>
       <c r="H50" t="n">
-        <v>718.4242432571286</v>
+        <v>-56.63232963549921</v>
       </c>
       <c r="I50" t="n">
-        <v>-25.94585165231343</v>
+        <v>-43.99877212728947</v>
       </c>
       <c r="J50" t="n">
-        <v>10864.59406887139</v>
+        <v>3.920967988972259</v>
       </c>
       <c r="K50" t="n">
-        <v>-246.2452786911677</v>
+        <v>16.03527061785147</v>
       </c>
       <c r="L50" t="n">
-        <v>-81.50745377731461</v>
+        <v>26.75987923716146</v>
       </c>
       <c r="M50" t="n">
-        <v>-1269.82036588056</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-157.4081124224391</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.5793693736761362</v>
-      </c>
-      <c r="P50" t="n">
-        <v>-0.2097229794785999</v>
+        <v>37.15161266848322</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-85.59247543813206</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>18.00407069694076</v>
+        <v>99.72592727937146</v>
       </c>
       <c r="G51" t="n">
-        <v>-122.9421287302519</v>
+        <v>267.0747304951581</v>
       </c>
       <c r="H51" t="n">
-        <v>76.36331438714838</v>
+        <v>87.64845605700712</v>
       </c>
       <c r="I51" t="n">
-        <v>-25.94585165231343</v>
+        <v>45.1123698154577</v>
       </c>
       <c r="J51" t="n">
-        <v>10864.59406887139</v>
+        <v>-1.759174649963138</v>
       </c>
       <c r="K51" t="n">
-        <v>-246.2452786911677</v>
+        <v>9.813411938098749</v>
       </c>
       <c r="L51" t="n">
-        <v>-81.50745377731461</v>
+        <v>10.3858511422255</v>
       </c>
       <c r="M51" t="n">
-        <v>-824.2698985731471</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-1709.679420436519</v>
-      </c>
-      <c r="O51" t="n">
-        <v>-107.3785792766331</v>
-      </c>
-      <c r="P51" t="n">
-        <v>-12.47816816257194</v>
+        <v>-0.6361090641119954</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>-409.8596575718865</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-317.6831664597051</v>
+        <v>-39.15320714268313</v>
       </c>
       <c r="G52" t="n">
-        <v>-342.8387209525839</v>
+        <v>-25.13562928993196</v>
       </c>
       <c r="H52" t="n">
-        <v>-260.57633518968</v>
+        <v>-24.11896949811642</v>
       </c>
       <c r="I52" t="n">
-        <v>135.270614743072</v>
+        <v>-0.3073361539075597</v>
       </c>
       <c r="J52" t="n">
-        <v>236.8196183948904</v>
+        <v>8.405438813349811</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.636686550388203</v>
+        <v>13.01546391752577</v>
       </c>
       <c r="L52" t="n">
-        <v>79.29331962103204</v>
+        <v>-3.626373626373627</v>
       </c>
       <c r="M52" t="n">
-        <v>-134.5309291231472</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-132.4380159576159</v>
-      </c>
-      <c r="O52" t="n">
-        <v>-292.1178771394967</v>
-      </c>
-      <c r="P52" t="n">
-        <v>18.73722932813916</v>
+        <v>-5.240410588870893</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-174.2135266116766</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-115.7881817447822</v>
+        <v>-20.93926412299315</v>
       </c>
       <c r="G53" t="n">
-        <v>-419.1430481006948</v>
+        <v>73.65976698562677</v>
       </c>
       <c r="H53" t="n">
-        <v>-1424.838094391824</v>
+        <v>60.26344236697761</v>
       </c>
       <c r="I53" t="n">
-        <v>135.270614743072</v>
+        <v>13.40833566881531</v>
       </c>
       <c r="J53" t="n">
-        <v>236.8196183948904</v>
+        <v>-2.508551881413899</v>
       </c>
       <c r="K53" t="n">
-        <v>-3.636686550388203</v>
+        <v>-8.608893956670457</v>
       </c>
       <c r="L53" t="n">
-        <v>79.29331962103204</v>
+        <v>8.494868871151665</v>
       </c>
       <c r="M53" t="n">
-        <v>-19.08372635116834</v>
-      </c>
-      <c r="N53" t="n">
-        <v>64.40913681375687</v>
-      </c>
-      <c r="O53" t="n">
-        <v>33.26878412210053</v>
-      </c>
-      <c r="P53" t="n">
-        <v>639.3977777021123</v>
+        <v>7.639680729760546</v>
       </c>
     </row>
     <row r="54">
@@ -3203,200 +2763,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-119.5861678004535</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>83.82286247832469</v>
+        <v>-48.84137322573112</v>
       </c>
       <c r="G54" t="n">
-        <v>-764.3038667785574</v>
+        <v>-87.0036981614666</v>
       </c>
       <c r="H54" t="n">
-        <v>-842.6303854875284</v>
+        <v>-56.90710382513661</v>
       </c>
       <c r="I54" t="n">
-        <v>-205.4039086544143</v>
+        <v>-38.77424263598391</v>
       </c>
       <c r="J54" t="n">
-        <v>-78.67332500986525</v>
+        <v>5.897291196388262</v>
       </c>
       <c r="K54" t="n">
-        <v>87.12572138671794</v>
+        <v>-10.08738194610816</v>
       </c>
       <c r="L54" t="n">
-        <v>94.16619976905534</v>
+        <v>-7.881019281077418</v>
       </c>
       <c r="M54" t="n">
-        <v>-592.8833543088045</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-534.6611909650935</v>
-      </c>
-      <c r="O54" t="n">
-        <v>810.3353867214214</v>
-      </c>
-      <c r="P54" t="n">
-        <v>-77.75496235455168</v>
+        <v>-7.675276752767533</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.65739378731505</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>-102.7217070920578</v>
+        <v>84.1262997717474</v>
       </c>
       <c r="G55" t="n">
-        <v>-54.08554371057538</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>109.297489221405</v>
+      </c>
+      <c r="H55" t="n">
+        <v>161.9959421760081</v>
       </c>
       <c r="I55" t="n">
-        <v>-205.4039086544143</v>
+        <v>338.8587370022825</v>
       </c>
       <c r="J55" t="n">
-        <v>-78.67332500986525</v>
+        <v>-2.905745578975407</v>
       </c>
       <c r="K55" t="n">
-        <v>87.12572138671794</v>
+        <v>0.5651619055632718</v>
       </c>
       <c r="L55" t="n">
-        <v>94.16619976905534</v>
+        <v>7.586912925799716</v>
       </c>
       <c r="M55" t="n">
-        <v>1736.05934581978</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-6.751515753496891</v>
-      </c>
-      <c r="O55" t="n">
-        <v>-137.5969000867621</v>
-      </c>
-      <c r="P55" t="n">
-        <v>-29.06081336351076</v>
+        <v>20.17754217678488</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-191.3645741231948</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>133.5164835164835</v>
+        <v>10.47115052164402</v>
       </c>
       <c r="G56" t="n">
-        <v>-47.16057622782135</v>
+        <v>34.39670219482304</v>
       </c>
       <c r="H56" t="n">
-        <v>-532.5274725274725</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+        <v>178.2786805629753</v>
+      </c>
+      <c r="I56" t="n">
+        <v>42.62591942650189</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10.70970749329915</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.625550660792955</v>
+      </c>
+      <c r="L56" t="n">
+        <v>14.01824291886703</v>
+      </c>
       <c r="M56" t="n">
-        <v>-36.42930856553139</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-371.9298245614036</v>
-      </c>
-      <c r="O56" t="n">
-        <v>417.7527151211358</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1521.637426900583</v>
+        <v>16.93746922698179</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>-80.57387145366154</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-123.2408936482166</v>
+        <v>-46.53685112225146</v>
       </c>
       <c r="G57" t="n">
-        <v>-124.0054325989298</v>
+        <v>-47.97346096734832</v>
       </c>
       <c r="H57" t="n">
-        <v>-118.0688804213185</v>
+        <v>-51.96551438282351</v>
       </c>
       <c r="I57" t="n">
-        <v>63.73753554080078</v>
+        <v>-46.08655436153178</v>
       </c>
       <c r="J57" t="n">
-        <v>-573.4205159105118</v>
+        <v>1.536842105263151</v>
       </c>
       <c r="K57" t="n">
-        <v>-156.191542475551</v>
+        <v>5.431578947368418</v>
       </c>
       <c r="L57" t="n">
-        <v>-101.095797117868</v>
+        <v>2.073684210526315</v>
       </c>
       <c r="M57" t="n">
-        <v>-15.79806659505907</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-31.58890469416784</v>
-      </c>
-      <c r="O57" t="n">
-        <v>-87.1627906976744</v>
-      </c>
-      <c r="P57" t="n">
-        <v>-12.00457665903888</v>
+        <v>16.38947368421052</v>
       </c>
     </row>
     <row r="58">
@@ -3405,8 +2935,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -3415,102 +2947,84 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>3306.984426855741</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-37.86290104670825</v>
+        <v>60.62271597719631</v>
       </c>
       <c r="G58" t="n">
-        <v>-278.1800261796741</v>
+        <v>-88.83669235630094</v>
       </c>
       <c r="H58" t="n">
-        <v>-78.07912891011291</v>
+        <v>224.0974516281265</v>
       </c>
       <c r="I58" t="n">
-        <v>136.7502991361033</v>
+        <v>236.9373236845333</v>
       </c>
       <c r="J58" t="n">
-        <v>-6.735113638377553</v>
+        <v>-7.159763313609463</v>
       </c>
       <c r="K58" t="n">
-        <v>306.4653052124735</v>
+        <v>15.87887740029542</v>
       </c>
       <c r="L58" t="n">
-        <v>-117.278129055429</v>
+        <v>18.94022666110753</v>
       </c>
       <c r="M58" t="n">
-        <v>24.59248508090363</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-141.6798848662575</v>
-      </c>
-      <c r="O58" t="n">
-        <v>-641.2131716849839</v>
-      </c>
-      <c r="P58" t="n">
-        <v>119.3071055328281</v>
+        <v>64.89753021544928</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>-137.8891035379585</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-27.96032966080729</v>
+        <v>-18.36515534846472</v>
       </c>
       <c r="G59" t="n">
-        <v>-34.27122698837344</v>
+        <v>-58.16421251888389</v>
       </c>
       <c r="H59" t="n">
-        <v>-32.20809912735691</v>
+        <v>-28.61251160335633</v>
       </c>
       <c r="I59" t="n">
-        <v>938.6239310394536</v>
+        <v>-30.8203345406891</v>
       </c>
       <c r="J59" t="n">
-        <v>-35.96015139286956</v>
+        <v>10.35691523263226</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.02422746739298062</v>
+        <v>22.40280433397067</v>
       </c>
       <c r="L59" t="n">
-        <v>-70.1388797184224</v>
+        <v>12.7151051625239</v>
       </c>
       <c r="M59" t="n">
-        <v>-2094.936708860715</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-60.49158166400387</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-82.92364230298085</v>
-      </c>
-      <c r="P59" t="n">
-        <v>-14.28659211011433</v>
+        <v>26.80050987890376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -3519,84 +3033,72 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>-224.4134593130388</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>197.5464254897426</v>
+        <v>-49.18676388109927</v>
       </c>
       <c r="G60" t="n">
-        <v>-117.0750122563826</v>
+        <v>-91.60216897622469</v>
       </c>
       <c r="H60" t="n">
-        <v>77.92399620670619</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>-44.99089253187613</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.229050279329609</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.712691094394567</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-2.364363221016554</v>
+      </c>
+      <c r="L60" t="n">
+        <v>12.84488448844885</v>
+      </c>
       <c r="M60" t="n">
-        <v>-244.101754333418</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-321.201139521718</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-339.9844088380006</v>
-      </c>
-      <c r="P60" t="n">
-        <v>268.8682929208687</v>
+        <v>85.5840208423795</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-171.3654232387382</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>-119.2585395455878</v>
+        <v>108.6092715231788</v>
       </c>
       <c r="G61" t="n">
-        <v>-138.6899091361042</v>
+        <v>-57.39514348785872</v>
       </c>
       <c r="H61" t="n">
-        <v>-169.5344103285791</v>
+        <v>70.86092715231787</v>
       </c>
       <c r="I61" t="n">
-        <v>-272.6140525234057</v>
+        <v>136.9757174392936</v>
       </c>
       <c r="J61" t="n">
-        <v>-194.4150728792034</v>
+        <v>5.802526906878795</v>
       </c>
       <c r="K61" t="n">
-        <v>-315.0155917824162</v>
+        <v>7.82639213851193</v>
       </c>
       <c r="L61" t="n">
-        <v>199.0396637506803</v>
+        <v>21.99344875994384</v>
       </c>
       <c r="M61" t="n">
-        <v>-294.6506892895015</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-225.5770186335405</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-334.8113712374582</v>
-      </c>
-      <c r="P61" t="n">
-        <v>580.1971014492758</v>
+        <v>20.21525503041647</v>
       </c>
     </row>
     <row r="62">
@@ -3605,206 +3107,170 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>1</v>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>-187.9530187994411</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-319.2011650489785</v>
+        <v>-32.99946811817447</v>
       </c>
       <c r="G62" t="n">
-        <v>-139.5905117784811</v>
+        <v>47.6449731739331</v>
       </c>
       <c r="H62" t="n">
-        <v>-119.9117415772603</v>
+        <v>-6.018002654858682</v>
       </c>
       <c r="I62" t="n">
-        <v>-128.7503378859602</v>
+        <v>67.37299834345666</v>
       </c>
       <c r="J62" t="n">
-        <v>-217.5445217485243</v>
+        <v>8.013355592654431</v>
       </c>
       <c r="K62" t="n">
-        <v>-139.7763533802599</v>
+        <v>-6.448814343551176</v>
       </c>
       <c r="L62" t="n">
-        <v>-79.46423309475796</v>
+        <v>-9.282108805384173</v>
       </c>
       <c r="M62" t="n">
-        <v>-416.6301779260488</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4498.516620993668</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-1242.305108843504</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-512.9649054036003</v>
+        <v>0.8730901153726258</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-920.2001736556689</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-569.2412329162432</v>
+        <v>-44.14202647531857</v>
       </c>
       <c r="G63" t="n">
-        <v>-122.6218194768503</v>
+        <v>35.73444265742917</v>
       </c>
       <c r="H63" t="n">
-        <v>-163.6208451963115</v>
+        <v>34.8797476184585</v>
       </c>
       <c r="I63" t="n">
-        <v>35.13880231762013</v>
+        <v>46.97204008412718</v>
       </c>
       <c r="J63" t="n">
-        <v>-112.602405490287</v>
+        <v>0.5564142194744968</v>
       </c>
       <c r="K63" t="n">
-        <v>-63.47801994942321</v>
+        <v>2.28748068006183</v>
       </c>
       <c r="L63" t="n">
-        <v>-15.97024867729588</v>
+        <v>-1.02009273570324</v>
       </c>
       <c r="M63" t="n">
-        <v>-399.917466622835</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-61.07538405637884</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-2068.03876945807</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-6.503343763318346</v>
+        <v>-1.514683153013916</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>-1568.817011184375</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-208.8508980563123</v>
+        <v>-50.30110760180794</v>
       </c>
       <c r="G64" t="n">
-        <v>-235.2975555504337</v>
+        <v>53.64392486580036</v>
       </c>
       <c r="H64" t="n">
-        <v>756.9607044209785</v>
+        <v>-11.7326412773852</v>
       </c>
       <c r="I64" t="n">
-        <v>-139.3771735284042</v>
+        <v>171.2044064431421</v>
       </c>
       <c r="J64" t="n">
-        <v>-42.01804047950375</v>
+        <v>1.158827539195649</v>
       </c>
       <c r="K64" t="n">
-        <v>32.45670545009137</v>
+        <v>-14.10380088751687</v>
       </c>
       <c r="L64" t="n">
-        <v>-84.47054359338929</v>
+        <v>-9.860295606398051</v>
       </c>
       <c r="M64" t="n">
-        <v>-192.7905720550233</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-160.6932421598299</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-123.371102627782</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-122.7564097669634</v>
+        <v>-2.496714848883034</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-541.1000126060433</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-160.5618085083507</v>
+        <v>-7.969748137302365</v>
       </c>
       <c r="G65" t="n">
-        <v>-165.1848627383467</v>
+        <v>136.8279233430552</v>
       </c>
       <c r="H65" t="n">
-        <v>-175.0320620161188</v>
+        <v>117.6018845422664</v>
       </c>
       <c r="I65" t="n">
-        <v>-204.2373208410714</v>
+        <v>37.73415673818323</v>
       </c>
       <c r="J65" t="n">
-        <v>-130.527564284967</v>
+        <v>2.920035938903857</v>
       </c>
       <c r="K65" t="n">
-        <v>-97.4961810706728</v>
+        <v>2.470799640610949</v>
       </c>
       <c r="L65" t="n">
-        <v>-141.1116365481666</v>
+        <v>-8.692722371967665</v>
       </c>
       <c r="M65" t="n">
-        <v>-190.2738476822078</v>
-      </c>
-      <c r="N65" t="n">
-        <v>620.3927354851436</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-2266.372409705652</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-166.3025937659196</v>
+        <v>-13.544474393531</v>
       </c>
     </row>
     <row r="66">
@@ -3813,105 +3279,2983 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2245.457198434109</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>9797.685893714563</v>
+        <v>604.5929584927387</v>
       </c>
       <c r="G66" t="n">
-        <v>-97.29589467338265</v>
+        <v>35.66396407378274</v>
       </c>
       <c r="H66" t="n">
-        <v>-146.9072308046607</v>
+        <v>-39.7939313027103</v>
       </c>
       <c r="I66" t="n">
-        <v>-446.0417179950152</v>
+        <v>23.49419560243053</v>
       </c>
       <c r="J66" t="n">
-        <v>-42.66850289219847</v>
+        <v>-2.22831676379843</v>
       </c>
       <c r="K66" t="n">
-        <v>-107.6733615290788</v>
+        <v>0.03507541213608562</v>
       </c>
       <c r="L66" t="n">
-        <v>-160.6504899270358</v>
+        <v>7.785336356764923</v>
       </c>
       <c r="M66" t="n">
-        <v>-261.2082023734659</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-26.49442073672474</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-100.0256316393727</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-247.5400706273422</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>258.06573969603</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>6148.962395896503</v>
+        <v>-61.97941214783938</v>
       </c>
       <c r="G67" t="n">
-        <v>-134.1593223945713</v>
+        <v>-60.69474379167013</v>
       </c>
       <c r="H67" t="n">
-        <v>-121.1473111975412</v>
+        <v>-73.51568513671944</v>
       </c>
       <c r="I67" t="n">
-        <v>-446.0417179950152</v>
+        <v>-6.222733086223843</v>
       </c>
       <c r="J67" t="n">
-        <v>-42.66850289219847</v>
+        <v>-1.157082748948101</v>
       </c>
       <c r="K67" t="n">
-        <v>-107.6733615290788</v>
+        <v>-0.4032258064516074</v>
       </c>
       <c r="L67" t="n">
-        <v>-160.6504899270358</v>
+        <v>-14.67391304347826</v>
       </c>
       <c r="M67" t="n">
-        <v>-544.9261037143842</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-38.60387061271162</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-74.245394125667</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-206.2272862103178</v>
+        <v>-15.04207573632538</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>39.66682792579046</v>
+      </c>
+      <c r="G68" t="n">
+        <v>34.25761534436541</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-33.87781734252878</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-20.57700215524983</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.080367393800218</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.85443037974683</v>
+      </c>
+      <c r="L68" t="n">
+        <v>16.07482561826253</v>
+      </c>
+      <c r="M68" t="n">
+        <v>23.51551956815115</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1.697381673776547</v>
+      </c>
+      <c r="G69" t="n">
+        <v>55.91940133922201</v>
+      </c>
+      <c r="H69" t="n">
+        <v>29.74505376702541</v>
+      </c>
+      <c r="I69" t="n">
+        <v>85.23368588700329</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.6282436492761649</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-5.381043430756621</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-1.720841300191212</v>
+      </c>
+      <c r="M69" t="n">
+        <v>15.84266593826822</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-8.3254675916168</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15.57021689540877</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-3.089990797046248</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.6294090237568043</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.849600982197677</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.525658807212211</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10.47865459249676</v>
+      </c>
+      <c r="M70" t="n">
+        <v>18.58366118953946</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-25.3553649613147</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-6.281612987064915</v>
+      </c>
+      <c r="H71" t="n">
+        <v>31.37307823027249</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21.54981107179272</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.58626073380172</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4.605776736924277</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-3.883684621389543</v>
+      </c>
+      <c r="M71" t="n">
+        <v>21.2919594067135</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>86.49391291073542</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-63.83088959121289</v>
+      </c>
+      <c r="H72" t="n">
+        <v>12.60974766678189</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-82.7099034072816</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-11.50442477876106</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.861642294713153</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-9.738717339667462</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>151.6299343114986</v>
+      </c>
+      <c r="G73" t="n">
+        <v>125.2706325332024</v>
+      </c>
+      <c r="H73" t="n">
+        <v>18.81024003929032</v>
+      </c>
+      <c r="I73" t="n">
+        <v>371.9810915341641</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1.052631578947365</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-10.38157894736842</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-1.157894736842099</v>
+      </c>
+      <c r="M73" t="n">
+        <v>6.999999999999991</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.373832791384993</v>
+      </c>
+      <c r="G74" t="n">
+        <v>12.69232365447752</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-22.65123315407978</v>
+      </c>
+      <c r="I74" t="n">
+        <v>61.20180088824995</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-3.758902664204701</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-2.053691275167786</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-1.895670879268616</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-20.63589892324982</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>41.67128667933396</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-38.19955866852064</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-9.452396617055859</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-1.785232614734738</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-4.353387236763968</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-4.741674660819513</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-2.247498972180342</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-8.46009775706912</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-40.60600256491397</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-30.37304599314191</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-64.89526511958714</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-52.96579012447449</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.9323703217334313</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.343363782912413</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14.38968915845336</v>
+      </c>
+      <c r="M76" t="n">
+        <v>16.45569620253164</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>190.8737197058391</v>
+      </c>
+      <c r="G77" t="n">
+        <v>103.456881865917</v>
+      </c>
+      <c r="H77" t="n">
+        <v>38.10036244330251</v>
+      </c>
+      <c r="I77" t="n">
+        <v>62.78436376127816</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-9.981442205726406</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-4.58642629904559</v>
+      </c>
+      <c r="L77" t="n">
+        <v>12.07582184517497</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-3.51272534464474</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-69.5197651150622</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-63.00321078517619</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-61.41597729100312</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-37.93661534395578</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.4639653572533207</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22.2644376899696</v>
+      </c>
+      <c r="L78" t="n">
+        <v>10.05471956224351</v>
+      </c>
+      <c r="M78" t="n">
+        <v>27.19367588932806</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>120.0439984675291</v>
+      </c>
+      <c r="G79" t="n">
+        <v>28.14209929824046</v>
+      </c>
+      <c r="H79" t="n">
+        <v>125.1694328122309</v>
+      </c>
+      <c r="I79" t="n">
+        <v>163.5105731147471</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4.692355500310746</v>
+      </c>
+      <c r="K79" t="n">
+        <v>23.46177750155375</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.74331883157241</v>
+      </c>
+      <c r="M79" t="n">
+        <v>21.25543816034805</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>22.80035269398169</v>
+      </c>
+      <c r="G80" t="n">
+        <v>81.50119924025012</v>
+      </c>
+      <c r="H80" t="n">
+        <v>12.70424766266637</v>
+      </c>
+      <c r="I80" t="n">
+        <v>138.152844226956</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.760000000000005</v>
+      </c>
+      <c r="K80" t="n">
+        <v>7.614213197969547</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-7.692307692307683</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-5.216095380029802</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-49.79490509108964</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-34.78974907382653</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-46.01764503685597</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-6.562273230722224</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.358490566037728</v>
+      </c>
+      <c r="K81" t="n">
+        <v>13.67924528301887</v>
+      </c>
+      <c r="L81" t="n">
+        <v>12.26415094339622</v>
+      </c>
+      <c r="M81" t="n">
+        <v>8.647798742138361</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>693.2851913143775</v>
+      </c>
+      <c r="G82" t="n">
+        <v>52.84404378870885</v>
+      </c>
+      <c r="H82" t="n">
+        <v>116.54893908282</v>
+      </c>
+      <c r="I82" t="n">
+        <v>221.6291316222865</v>
+      </c>
+      <c r="J82" t="n">
+        <v>10.21290751829675</v>
+      </c>
+      <c r="K82" t="n">
+        <v>13.53666895133654</v>
+      </c>
+      <c r="L82" t="n">
+        <v>29.3635298711441</v>
+      </c>
+      <c r="M82" t="n">
+        <v>33.4273056786146</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-85.39026101688486</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-38.72245647084605</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-22.09909243584151</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-74.60274313216047</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3923936009658782</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-10.2022336251132</v>
+      </c>
+      <c r="L83" t="n">
+        <v>14.3978267431331</v>
+      </c>
+      <c r="M83" t="n">
+        <v>40.41654089948687</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1042.660211700993</v>
+      </c>
+      <c r="G84" t="n">
+        <v>99.62728289228475</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-11.53687339995045</v>
+      </c>
+      <c r="I84" t="n">
+        <v>153.1052908995075</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-2.665374363944757</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.260398285858331</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.229372080954859</v>
+      </c>
+      <c r="M84" t="n">
+        <v>18.95173230678116</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-86.0846211294307</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-53.85118055954501</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-33.68975124949733</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-62.34201757913483</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.394075180482935</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-2.66367936270849</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.6223549912870301</v>
+      </c>
+      <c r="M85" t="n">
+        <v>8.638287279063976</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>136.4238744440835</v>
+      </c>
+      <c r="G86" t="n">
+        <v>99.62873804039899</v>
+      </c>
+      <c r="H86" t="n">
+        <v>97.50924149548453</v>
+      </c>
+      <c r="I86" t="n">
+        <v>101.0818767775221</v>
+      </c>
+      <c r="J86" t="n">
+        <v>20.46413502109704</v>
+      </c>
+      <c r="K86" t="n">
+        <v>35.6294536817102</v>
+      </c>
+      <c r="L86" t="n">
+        <v>68.10598626104023</v>
+      </c>
+      <c r="M86" t="n">
+        <v>132.1138211382114</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-43.74942252610182</v>
+      </c>
+      <c r="G87" t="n">
+        <v>92.56379457802353</v>
+      </c>
+      <c r="H87" t="n">
+        <v>142.9365761898331</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-23.12335790114594</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9.281961471103326</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20.49036777583188</v>
+      </c>
+      <c r="L87" t="n">
+        <v>22.53356684179801</v>
+      </c>
+      <c r="M87" t="n">
+        <v>60.24518388791594</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-12.854174401916</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-26.41273243403968</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-26.12649039898993</v>
+      </c>
+      <c r="I88" t="n">
+        <v>43.51763471918029</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.109124254928936</v>
+      </c>
+      <c r="K88" t="n">
+        <v>16.65793609219486</v>
+      </c>
+      <c r="L88" t="n">
+        <v>22.76736493936052</v>
+      </c>
+      <c r="M88" t="n">
+        <v>37.89473684210527</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15.20050505005629</v>
+      </c>
+      <c r="G89" t="n">
+        <v>48.79095423716916</v>
+      </c>
+      <c r="H89" t="n">
+        <v>53.08014781866179</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-54.08247314589141</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.433318365514149</v>
+      </c>
+      <c r="K89" t="n">
+        <v>17.1980242478671</v>
+      </c>
+      <c r="L89" t="n">
+        <v>17.87157611136058</v>
+      </c>
+      <c r="M89" t="n">
+        <v>45.53210597215984</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-52.88783906084633</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-70.30317673315859</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-40.38713702414756</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-22.55610605188365</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-2.536760579189589</v>
+      </c>
+      <c r="K90" t="n">
+        <v>7.562712914214933</v>
+      </c>
+      <c r="L90" t="n">
+        <v>14.71792839212578</v>
+      </c>
+      <c r="M90" t="n">
+        <v>20.790150935522</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>156.9018579066095</v>
+      </c>
+      <c r="G91" t="n">
+        <v>83.58250189349376</v>
+      </c>
+      <c r="H91" t="n">
+        <v>81.76896215470811</v>
+      </c>
+      <c r="I91" t="n">
+        <v>71.09176450205504</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-2.620062190487149</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-4.727628699758153</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-1.877231371645739</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-14.20591961303696</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>576.5386638611258</v>
+      </c>
+      <c r="G92" t="n">
+        <v>30.83750858363641</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-57.68885964551548</v>
+      </c>
+      <c r="I92" t="n">
+        <v>173.3329791190691</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.178289000718908</v>
+      </c>
+      <c r="K92" t="n">
+        <v>8.541754171598765</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-2.235520704360985</v>
+      </c>
+      <c r="M92" t="n">
+        <v>19.51732256979481</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-65.45369722416609</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-9.779566130160951</v>
+      </c>
+      <c r="H93" t="n">
+        <v>12.59816499494596</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-6.889044397791774</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.650812636318871</v>
+      </c>
+      <c r="K93" t="n">
+        <v>16.23161894040667</v>
+      </c>
+      <c r="L93" t="n">
+        <v>15.0038696967565</v>
+      </c>
+      <c r="M93" t="n">
+        <v>37.02244424118765</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>92.79353821907014</v>
+      </c>
+      <c r="G94" t="n">
+        <v>99.62873811757986</v>
+      </c>
+      <c r="H94" t="n">
+        <v>47.18746239922994</v>
+      </c>
+      <c r="I94" t="n">
+        <v>286.6840524735262</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-2.317880794701975</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.327088212334127</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-10.40861402540032</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-11.58038147138964</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-10.15102900002044</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-17.53898346651407</v>
+      </c>
+      <c r="H95" t="n">
+        <v>105.8960577139237</v>
+      </c>
+      <c r="I95" t="n">
+        <v>40.70221332079868</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.09244992295840103</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-3.482280431432981</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-9.214175654853626</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-14.39137134052389</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-65.05212362859277</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-67.45921827667354</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-32.63767275538804</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-21.6167904738824</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.137190684133916</v>
+      </c>
+      <c r="K96" t="n">
+        <v>13.10407976396377</v>
+      </c>
+      <c r="L96" t="n">
+        <v>8.289499318137548</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5.79558431671108</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>324.4104000298423</v>
+      </c>
+      <c r="G97" t="n">
+        <v>94.98341458655548</v>
+      </c>
+      <c r="H97" t="n">
+        <v>119.4718636208425</v>
+      </c>
+      <c r="I97" t="n">
+        <v>56.28681861353978</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-11.09112170549608</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-12.80021588558064</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-12.82720158316093</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-13.43887739498066</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>35.5283662403598</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20.20239181159822</v>
+      </c>
+      <c r="H98" t="n">
+        <v>78.3028952896411</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.242164110777974</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4427717511622664</v>
+      </c>
+      <c r="K98" t="n">
+        <v>10.44303797468354</v>
+      </c>
+      <c r="L98" t="n">
+        <v>12.97310756972112</v>
+      </c>
+      <c r="M98" t="n">
+        <v>50.38117335101092</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>58.47717534400496</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-6.760190177515785</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-32.04832840001006</v>
+      </c>
+      <c r="I99" t="n">
+        <v>42.90314195393142</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-5.179634119462188</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-5.995150980824331</v>
+      </c>
+      <c r="L99" t="n">
+        <v>13.04826978179414</v>
+      </c>
+      <c r="M99" t="n">
+        <v>50.2755124531629</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>86.22349987160099</v>
+      </c>
+      <c r="G100" t="n">
+        <v>49.70152933957991</v>
+      </c>
+      <c r="H100" t="n">
+        <v>97.71358896100453</v>
+      </c>
+      <c r="I100" t="n">
+        <v>42.7814330483863</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.9577320904099093</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.6880436193690784</v>
+      </c>
+      <c r="L100" t="n">
+        <v>10.48433048433048</v>
+      </c>
+      <c r="M100" t="n">
+        <v>27.35632183908046</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12.42267192210309</v>
+      </c>
+      <c r="G101" t="n">
+        <v>58.64982781933863</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-22.41757736638283</v>
+      </c>
+      <c r="I101" t="n">
+        <v>75.45075326645294</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6.936565239814331</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-11.07529654461063</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.7735946364105318</v>
+      </c>
+      <c r="M101" t="n">
+        <v>23.94275399690561</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-45.74956923170636</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-24.8900954957994</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-67.3762988740007</v>
+      </c>
+      <c r="I102" t="n">
+        <v>23.72027724001359</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-13.36888211769186</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-12.26615236258438</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-5.229166666666663</v>
+      </c>
+      <c r="M102" t="n">
+        <v>23.34598698481561</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>141.7594585619784</v>
+      </c>
+      <c r="G103" t="n">
+        <v>54.1815480101006</v>
+      </c>
+      <c r="H103" t="n">
+        <v>163.6157424108135</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-38.08915188884562</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.616399208617281</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3.978896460760596</v>
+      </c>
+      <c r="L103" t="n">
+        <v>10.04616399208617</v>
+      </c>
+      <c r="M103" t="n">
+        <v>27.72037810507804</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-46.29778994576159</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-75.11634276002006</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-92.11925039780974</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.993814832298437</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.867870332375871</v>
+      </c>
+      <c r="K104" t="n">
+        <v>8.734590664840383</v>
+      </c>
+      <c r="L104" t="n">
+        <v>17.56664388243336</v>
+      </c>
+      <c r="M104" t="n">
+        <v>7.087267821936286</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>34.35922266201592</v>
+      </c>
+      <c r="G105" t="n">
+        <v>11.85950471498547</v>
+      </c>
+      <c r="H105" t="n">
+        <v>293.9921836070814</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-39.6631993738424</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4.748062015503868</v>
+      </c>
+      <c r="K105" t="n">
+        <v>14.36046511627906</v>
+      </c>
+      <c r="L105" t="n">
+        <v>23.41085271317829</v>
+      </c>
+      <c r="M105" t="n">
+        <v>52.4031007751938</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>91.4616497829233</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-16.15969581749049</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-36.54676258992806</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-2.482979575490579</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-3.373015873015865</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2.52631578947369</v>
+      </c>
+      <c r="M106" t="n">
+        <v>49.84615384615385</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-17.91383219954649</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-29.70521541950114</v>
+      </c>
+      <c r="H107" t="n">
+        <v>242.7815570672713</v>
+      </c>
+      <c r="I107" t="n">
+        <v>118.8208616780045</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.23819301848048</v>
+      </c>
+      <c r="K107" t="n">
+        <v>14.6611909650924</v>
+      </c>
+      <c r="L107" t="n">
+        <v>22.99794661190964</v>
+      </c>
+      <c r="M107" t="n">
+        <v>11.08829568788501</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-18.87072808320951</v>
+      </c>
+      <c r="G108" t="n">
+        <v>75.70394207562349</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-47.46843054720385</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.4293189246628243</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-14.25688538117764</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-13.55912658863841</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-27.1429067305356</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-14.97252747252747</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2.06043956043956</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-21.7948717948718</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-34.31776556776557</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-7.882550239644767</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-13.29432951870944</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5.097811276167972</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-19.25495726414285</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G110" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-92.2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-72.91666666666666</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.03896103896103</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10.32258064516128</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-7.567567567567574</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-3.389830508474579</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>79.48717948717949</v>
+      </c>
+      <c r="G111" t="n">
+        <v>130.7692307692308</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-48.71794871794872</v>
+      </c>
+      <c r="I111" t="n">
+        <v>315.3846153846154</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.01754385964913</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-28.07017543859649</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-39.1812865497076</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-54.97076023391813</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>460.7642691980042</v>
+      </c>
+      <c r="G112" t="n">
+        <v>336.427353665467</v>
+      </c>
+      <c r="H112" t="n">
+        <v>138.4421928526334</v>
+      </c>
+      <c r="I112" t="n">
+        <v>185.8684997456355</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-20.5020920502092</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-31.85078909612625</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-31.15942028985508</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-35.76741041244084</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>89.5086592300013</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-78.18872346890056</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-33.23364729371934</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-33.58435695993749</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-17.26315789473684</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-21.78947368421053</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-4.000000000000008</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-31.47368421052632</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.311137388683668</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-24.12093432182627</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8.150698905949515</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-18.52399934101463</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-3.56156819436775</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-5.975773889636605</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-5.004079412564599</v>
+      </c>
+      <c r="M114" t="n">
+        <v>22.51841459137144</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>44.67024664713559</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-14.9880488280117</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-14.52291744444725</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-4.060622016235349</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-4.437446321213848</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2.490695677068415</v>
+      </c>
+      <c r="L115" t="n">
+        <v>27.08273690237618</v>
+      </c>
+      <c r="M115" t="n">
+        <v>49.38448325221872</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-41.63751567553297</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-57.31457121479085</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-88.27324629166694</v>
+      </c>
+      <c r="I116" t="n">
+        <v>401.5598411798072</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.2538071065989906</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-11.53415453527435</v>
+      </c>
+      <c r="L116" t="n">
+        <v>13.34289813486371</v>
+      </c>
+      <c r="M116" t="n">
+        <v>64.24116424116426</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15.77608142493639</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-41.28922815945717</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-58.02092168504382</v>
+      </c>
+      <c r="I117" t="n">
+        <v>272.2250494769579</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-5.06329113924051</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-4.55696202531646</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2.278481012658224</v>
+      </c>
+      <c r="M117" t="n">
+        <v>55.0632911392405</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-20.85664731234557</v>
+      </c>
+      <c r="G118" t="n">
+        <v>153.5511558494255</v>
+      </c>
+      <c r="H118" t="n">
+        <v>464.8216652298665</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-22.1720181036229</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-16.72529915314296</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-5.400044018163282</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-21.36323150622278</v>
+      </c>
+      <c r="M118" t="n">
+        <v>18.39806599396892</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>25.94847641800905</v>
+      </c>
+      <c r="G119" t="n">
+        <v>456.8859755281495</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-79.3683563083214</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-39.44934064964021</v>
+      </c>
+      <c r="J119" t="n">
+        <v>24.10144949719131</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.94495890285155</v>
+      </c>
+      <c r="L119" t="n">
+        <v>51.26842483890223</v>
+      </c>
+      <c r="M119" t="n">
+        <v>67.86463196240798</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>73.65051215678483</v>
+      </c>
+      <c r="G120" t="n">
+        <v>322.1719890899793</v>
+      </c>
+      <c r="H120" t="n">
+        <v>222.2438484872307</v>
+      </c>
+      <c r="I120" t="n">
+        <v>80.20446927882436</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-5.396512010529781</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-18.94558782069354</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-15.31664212076584</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5.042016806722685</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-52.56099971818782</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-62.0456199237004</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-85.98594304029072</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-55.7697047701969</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10.50434782608695</v>
+      </c>
+      <c r="K121" t="n">
+        <v>23.7913043478261</v>
+      </c>
+      <c r="L121" t="n">
+        <v>35.96521739130436</v>
+      </c>
+      <c r="M121" t="n">
+        <v>34.29565217391304</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18.40963855421687</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4.062400734126284</v>
+      </c>
+      <c r="H122" t="n">
+        <v>133.7032339885859</v>
+      </c>
+      <c r="I122" t="n">
+        <v>111.362414423456</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-1.962387571545382</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.2910602910602922</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-1.529617082435063</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-6.674813485839712</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-16.19183285849952</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-8.904829738163071</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-52.93379460046127</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-22.17419617419617</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6.213511259382813</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.8023352793995</v>
+      </c>
+      <c r="L123" t="n">
+        <v>17.47289407839867</v>
+      </c>
+      <c r="M123" t="n">
+        <v>27.56463719766472</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-22.78494248867201</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-59.12881443489169</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-18.11864720014785</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-67.63906743017412</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-2.275803762687539</v>
+      </c>
+      <c r="K124" t="n">
+        <v>7.976929879112774</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-0.3998538064775317</v>
+      </c>
+      <c r="M124" t="n">
+        <v>12.02403282053516</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>186.8821378594321</v>
+      </c>
+      <c r="G125" t="n">
+        <v>277.4567778630434</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4.09876766126484</v>
+      </c>
+      <c r="I125" t="n">
+        <v>43.03254638197987</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6.825532990359623</v>
+      </c>
+      <c r="K125" t="n">
+        <v>3.104989319536611</v>
+      </c>
+      <c r="L125" t="n">
+        <v>7.869277932631668</v>
+      </c>
+      <c r="M125" t="n">
+        <v>11.24206863200154</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-64.6550627504044</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-25.43644056162689</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-62.27306275708501</v>
+      </c>
+      <c r="I126" t="n">
+        <v>11.2251705937919</v>
+      </c>
+      <c r="J126" t="n">
+        <v>20.14593344011391</v>
+      </c>
+      <c r="K126" t="n">
+        <v>17.96260702428798</v>
+      </c>
+      <c r="L126" t="n">
+        <v>43.66886571610982</v>
+      </c>
+      <c r="M126" t="n">
+        <v>152.1852820321256</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>949.6645602698723</v>
+      </c>
+      <c r="G127" t="n">
+        <v>27.68779398489096</v>
+      </c>
+      <c r="H127" t="n">
+        <v>84.25393167672352</v>
+      </c>
+      <c r="I127" t="n">
+        <v>96.19530099301564</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-18.69352688490595</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-10.90208857946972</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-10.20589542290032</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-34.63190638423937</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-41.43984322623898</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-62.12560536860221</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-44.66269228894917</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-57.04645350992442</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-3.110433087549794</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.069755105649362</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-0.8499566348655716</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-5.356403675800987</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>182.7911536948647</v>
+      </c>
+      <c r="G129" t="n">
+        <v>37.62439015798651</v>
+      </c>
+      <c r="H129" t="n">
+        <v>29.11331466380166</v>
+      </c>
+      <c r="I129" t="n">
+        <v>42.80313037556287</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.807907627711693</v>
+      </c>
+      <c r="K129" t="n">
+        <v>7.706438068579429</v>
+      </c>
+      <c r="L129" t="n">
+        <v>18.41322603219036</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3.551434569629113</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11.18901086180619</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.842241206608826</v>
+      </c>
+      <c r="H130" t="n">
+        <v>85.6973221869129</v>
+      </c>
+      <c r="I130" t="n">
+        <v>91.63876840653384</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11.85077496658617</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-45.22729621421764</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-40.89461619478347</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-38.83310893120472</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>262.4334606918076</v>
+      </c>
+      <c r="G131" t="n">
+        <v>281.3161069718643</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2.317345854024748</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-42.98520860300131</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-19.10442129095826</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-33.24458606737804</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.01048196054590587</v>
+      </c>
+      <c r="M131" t="n">
+        <v>57.29439634389217</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>28.60019668092433</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.498911075997945</v>
+      </c>
+      <c r="H132" t="n">
+        <v>113.7128587456118</v>
+      </c>
+      <c r="I132" t="n">
+        <v>210.8402381269626</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.253736939885108</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-36.35016863317819</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-29.73950963791145</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-33.45635888310376</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>102.4075058000711</v>
+      </c>
+      <c r="G133" t="n">
+        <v>156.1560134460043</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-38.84354202299707</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-44.5870412863457</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-14.47672499174645</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-22.3175965665236</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-7.659293496203369</v>
+      </c>
+      <c r="M133" t="n">
+        <v>35.53978210630572</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/stata_data.xlsx
+++ b/stata_data.xlsx
@@ -482,42 +482,42 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Volume (t=1)</t>
+          <t>one_m_diff_volume</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Volume (t=3)</t>
+          <t>three_m_diff_volume</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Volume (t=6)</t>
+          <t>six_m_diff_volume</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Volume (t=12)</t>
+          <t>one_y_diff_volume</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Share Price (t=1)</t>
+          <t>one_m_diff_shareprice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Share Price (t=3)</t>
+          <t>three_m_diff_shareprice</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Share Price (t=6)</t>
+          <t>six_m_diff_shareprice</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>% Change in Share Price (t=12)</t>
+          <t>one_y_diff_shareprice</t>
         </is>
       </c>
     </row>
